--- a/default-mappings-xlsx/grabber/Grabber_Mapping_Salesforce_DE.xlsx
+++ b/default-mappings-xlsx/grabber/Grabber_Mapping_Salesforce_DE.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MarcusKlapprodt\snapADDY GmbH\Sebastian Metzger - Mapping\2_Vorlagen CRM Mapping\Grabber\2019\DE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\Neue Vorlagen\Grabber\Salesforce\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{6AD013F9-13F0-42AC-AB00-24C43AC688CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{52EA9F33-7B3E-499D-A157-26598CF8C134}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E54C8E01-71CE-4E61-AF3B-42A23F49C946}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Specifications" sheetId="2" r:id="rId1"/>
-    <sheet name="Tabelle1" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="field_type">Specifications!$I$7:$I$24,Specifications!$M$7:$M$24,Specifications!$Q$7:$Q$24,Specifications!$Y$7:$Y$24,Specifications!$U$7:$U$24,Specifications!$U$27:$U$37,Specifications!$Y$27:$Y$37,Specifications!$Q$27:$Q$37,Specifications!$M$27:$M$37,Specifications!$I$27:$I$37</definedName>
+    <definedName name="field_type">Specifications!$I$8:$I$25,Specifications!$M$8:$M$25,Specifications!$Q$8:$Q$25,Specifications!$Y$8:$Y$25,Specifications!$U$8:$U$25,Specifications!$U$28:$U$38,Specifications!$Y$28:$Y$38,Specifications!$Q$28:$Q$38,Specifications!$M$28:$M$38,Specifications!$I$28:$I$38</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="79">
   <si>
     <t>Website</t>
   </si>
@@ -40,12 +39,6 @@
     <t>Fax</t>
   </si>
   <si>
-    <t>Text</t>
-  </si>
-  <si>
-    <t>Dropdown</t>
-  </si>
-  <si>
     <t>Salutation</t>
   </si>
   <si>
@@ -148,24 +141,45 @@
     <t>Field Value</t>
   </si>
   <si>
-    <t>"snapADDY"</t>
-  </si>
-  <si>
-    <t>exportType</t>
-  </si>
-  <si>
-    <t>exportType__c</t>
-  </si>
-  <si>
     <t>Default Value</t>
   </si>
   <si>
-    <t>string</t>
-  </si>
-  <si>
     <t>SF: Custom Entity (optional)</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF9DA600"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Vorlagen-Name:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFE6C36"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Hier bitte Namen der Master-Vorlage einfügen]</t>
+    </r>
+  </si>
+  <si>
     <t>Anrede</t>
   </si>
   <si>
@@ -226,9 +240,6 @@
     <t>Username</t>
   </si>
   <si>
-    <t>Export-Art</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
@@ -238,39 +249,6 @@
     <t>Datensatztyp</t>
   </si>
   <si>
-    <t>Contact Record Type</t>
-  </si>
-  <si>
-    <t>Account Record Type</t>
-  </si>
-  <si>
-    <t>Legende</t>
-  </si>
-  <si>
-    <t>Checkbox-felder</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>Field Type</t>
-  </si>
-  <si>
-    <t>Picklist</t>
-  </si>
-  <si>
-    <t>Lookup</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Number</t>
-  </si>
-  <si>
-    <t>Multi-Picklist</t>
-  </si>
-  <si>
     <t>Account Name</t>
   </si>
   <si>
@@ -308,13 +286,22 @@
   </si>
   <si>
     <t>picklist</t>
+  </si>
+  <si>
+    <t>Datentypsatz</t>
+  </si>
+  <si>
+    <t>LeadSource</t>
+  </si>
+  <si>
+    <t>RecordTypeId</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -360,6 +347,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFE6C36"/>
       <name val="Calibri"/>
@@ -375,16 +369,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF9DA600"/>
+      <sz val="16"/>
+      <color rgb="FFFE6C36"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="22"/>
+      <sz val="11"/>
       <color rgb="FF9DA600"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -429,7 +422,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="62">
+  <borders count="75">
     <border>
       <left/>
       <right/>
@@ -477,37 +470,6 @@
       <right/>
       <top style="thin">
         <color rgb="FF0070C0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="0"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color theme="0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thick">
-        <color theme="0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color theme="0"/>
-      </right>
-      <top style="thick">
-        <color theme="0"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -695,34 +657,6 @@
       <left style="thick">
         <color rgb="FF9DA600"/>
       </left>
-      <right style="thick">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFFE6C36"/>
-      </left>
-      <right style="thick">
-        <color rgb="FFFE6C36"/>
-      </right>
-      <top style="thick">
-        <color rgb="FFFE6C36"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
       <right/>
       <top style="thin">
         <color rgb="FF9DA600"/>
@@ -1206,202 +1140,641 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFE6C36"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFE6C36"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFFE6C36"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF9DA600"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF9DA600"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="4" tint="0.59996337778862885"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color theme="4" tint="0.59996337778862885"/>
+      </top>
+      <bottom style="thick">
+        <color theme="4" tint="0.59996337778862885"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color theme="4" tint="0.59996337778862885"/>
+      </top>
+      <bottom style="thick">
+        <color theme="4" tint="0.59996337778862885"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="4" tint="0.59996337778862885"/>
+      </right>
+      <top style="thick">
+        <color theme="4" tint="0.59996337778862885"/>
+      </top>
+      <bottom style="thick">
+        <color theme="4" tint="0.59996337778862885"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="4" tint="0.59996337778862885"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thick">
+        <color theme="4" tint="0.59996337778862885"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thick">
+        <color theme="4" tint="0.59996337778862885"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thick">
+        <color theme="4" tint="0.59996337778862885"/>
+      </right>
+      <top style="thick">
+        <color theme="4" tint="0.59996337778862885"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="4" tint="0.59996337778862885"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="4" tint="0.59996337778862885"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="4" tint="0.59996337778862885"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="4" tint="0.59996337778862885"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="4" tint="0.59996337778862885"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="4" tint="0.59996337778862885"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="4" tint="0.59996337778862885"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="thick">
+        <color theme="4" tint="0.59996337778862885"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="thick">
+        <color theme="4" tint="0.59996337778862885"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="4" tint="0.59996337778862885"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="thick">
+        <color theme="4" tint="0.59996337778862885"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="66" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="69" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="68" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="67" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="39">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1652,11 +2025,11 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="snapADDY" pivot="0" count="5" xr9:uid="{A8851A67-88BF-475D-B211-A3CFCBFE5DEE}">
-      <tableStyleElement type="wholeTable" dxfId="20"/>
-      <tableStyleElement type="headerRow" dxfId="19"/>
-      <tableStyleElement type="firstColumn" dxfId="18"/>
-      <tableStyleElement type="firstRowStripe" dxfId="17"/>
-      <tableStyleElement type="secondRowStripe" dxfId="16"/>
+      <tableStyleElement type="wholeTable" dxfId="38"/>
+      <tableStyleElement type="headerRow" dxfId="37"/>
+      <tableStyleElement type="firstColumn" dxfId="36"/>
+      <tableStyleElement type="firstRowStripe" dxfId="35"/>
+      <tableStyleElement type="secondRowStripe" dxfId="34"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1683,13 +2056,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>771525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1761,13 +2134,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>973015</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>105510</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>4396</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2128,13 +2501,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5027446F-BBDF-4A57-AA45-BC7D0EB64201}">
-  <dimension ref="A1:Y38"/>
+  <dimension ref="A1:Y39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:XFD32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.85546875" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
@@ -2148,1445 +2521,1380 @@
     <col min="14" max="14" width="1.7109375" customWidth="1"/>
     <col min="15" max="17" width="15" customWidth="1"/>
     <col min="18" max="18" width="1.7109375" customWidth="1"/>
-    <col min="19" max="21" width="15" customWidth="1"/>
-    <col min="22" max="22" width="1.5703125" customWidth="1"/>
-    <col min="23" max="25" width="15" customWidth="1"/>
+    <col min="19" max="21" width="15" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="22" width="1.5703125" customWidth="1" outlineLevel="1"/>
+    <col min="23" max="25" width="15" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="42" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+    <row r="1" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="67" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:25" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G2" s="53"/>
-      <c r="K2" s="53"/>
+    <row r="2" spans="1:25" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:25" ht="79.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+    <row r="3" spans="1:25" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G3" s="46"/>
+      <c r="K3" s="46"/>
+    </row>
+    <row r="4" spans="1:25" ht="80.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="23"/>
+      <c r="C4" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="35"/>
+      <c r="G4" s="112" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="112"/>
+      <c r="I4" s="112"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="112" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="112"/>
+      <c r="M4" s="112"/>
+      <c r="O4" s="112" t="s">
+        <v>30</v>
+      </c>
+      <c r="P4" s="112"/>
+      <c r="Q4" s="112"/>
+      <c r="S4" s="109" t="s">
+        <v>38</v>
+      </c>
+      <c r="T4" s="110"/>
+      <c r="U4" s="111"/>
+      <c r="W4" s="109" t="s">
+        <v>71</v>
+      </c>
+      <c r="X4" s="110"/>
+      <c r="Y4" s="111"/>
+    </row>
+    <row r="5" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="79" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="D3" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="E3" s="40"/>
-      <c r="G3" s="87" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="87" t="s">
+      <c r="B6" s="57"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="O6" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="P6" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q6" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="S6" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="T6" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="U6" s="84" t="s">
+        <v>23</v>
+      </c>
+      <c r="W6" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="X6" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y6" s="84" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="78"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="39"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="9"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="16"/>
+      <c r="S7" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
-      <c r="O3" s="87" t="s">
+      <c r="T7" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="P3" s="87"/>
-      <c r="Q3" s="87"/>
-      <c r="S3" s="84" t="s">
-        <v>44</v>
-      </c>
-      <c r="T3" s="85"/>
-      <c r="U3" s="86"/>
-      <c r="W3" s="84" t="s">
-        <v>88</v>
-      </c>
-      <c r="X3" s="85"/>
-      <c r="Y3" s="86"/>
+      <c r="U7" s="86"/>
+      <c r="W7" s="92"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="93"/>
     </row>
-    <row r="4" spans="1:25" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="48" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="47" t="s">
-        <v>42</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" s="1"/>
-      <c r="K5" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="L5" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="M5" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="O5" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="P5" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q5" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="S5" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="T5" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="U5" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="W5" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="X5" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y5" s="24" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="44"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="17"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="17"/>
-      <c r="S6" s="16"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="17"/>
-      <c r="W6" s="16"/>
-      <c r="X6" s="5"/>
-      <c r="Y6" s="17"/>
-    </row>
-    <row r="7" spans="1:25" s="52" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="73" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="54" t="s">
-        <v>86</v>
-      </c>
-      <c r="C7" s="67"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="56"/>
-      <c r="G7" s="57" t="s">
-        <v>45</v>
-      </c>
-      <c r="H7" s="58" t="s">
-        <v>5</v>
-      </c>
-      <c r="I7" s="59" t="s">
-        <v>92</v>
-      </c>
-      <c r="J7" s="60"/>
-      <c r="K7" s="57" t="s">
-        <v>45</v>
-      </c>
-      <c r="L7" s="58" t="s">
-        <v>5</v>
-      </c>
-      <c r="M7" s="59" t="s">
-        <v>92</v>
-      </c>
-      <c r="O7" s="57"/>
-      <c r="P7" s="58"/>
-      <c r="Q7" s="59"/>
-      <c r="S7" s="57" t="s">
+    <row r="8" spans="1:25" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="68" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="60"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="49"/>
+      <c r="G8" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="J8" s="53"/>
+      <c r="K8" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="L8" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="O8" s="54"/>
+      <c r="P8" s="55"/>
+      <c r="Q8" s="56"/>
+      <c r="S8" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="T7" s="58" t="s">
+      <c r="T8" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="U7" s="59"/>
-      <c r="W7" s="57" t="s">
-        <v>5</v>
-      </c>
-      <c r="X7" s="58"/>
-      <c r="Y7" s="59" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" s="74" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="45"/>
-      <c r="G8" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I8" s="59" t="s">
-        <v>90</v>
-      </c>
-      <c r="J8" s="1"/>
-      <c r="K8" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="M8" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="O8" s="9"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="10"/>
-      <c r="S8" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="T8" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="U8" s="10"/>
-      <c r="W8" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="10" t="s">
-        <v>3</v>
-      </c>
+      <c r="U8" s="86"/>
+      <c r="W8" s="88"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="86"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9" s="74" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="30"/>
-      <c r="C9" s="68"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="45"/>
-      <c r="G9" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>91</v>
+      <c r="A9" s="69" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="25"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="40"/>
+      <c r="G9" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="52" t="s">
+        <v>73</v>
       </c>
       <c r="J9" s="1"/>
-      <c r="K9" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="M9" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="O9" s="9"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="10"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="10"/>
-      <c r="W9" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="X9" s="4"/>
-      <c r="Y9" s="10" t="s">
-        <v>3</v>
-      </c>
+      <c r="K9" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="O9" s="8"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="9"/>
+      <c r="S9" s="88"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="86"/>
+      <c r="W9" s="88"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="86"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10" s="74" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="45"/>
-      <c r="G10" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>91</v>
+      <c r="A10" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="25"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="40"/>
+      <c r="G10" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="J10" s="1"/>
-      <c r="K10" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="M10" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="O10" s="9"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="10"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="10"/>
-      <c r="W10" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="X10" s="4"/>
-      <c r="Y10" s="10" t="s">
-        <v>3</v>
-      </c>
+      <c r="K10" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="O10" s="8"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="9"/>
+      <c r="S10" s="88"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="86"/>
+      <c r="W10" s="88"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="86"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A11" s="74" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" s="30"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="45"/>
-      <c r="G11" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>90</v>
+      <c r="A11" s="69" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="25"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="40"/>
+      <c r="G11" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="J11" s="1"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="10"/>
-      <c r="O11" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="P11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q11" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="S11" s="9"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="10"/>
-      <c r="W11" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="X11" s="4"/>
-      <c r="Y11" s="10" t="s">
-        <v>3</v>
-      </c>
+      <c r="K11" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="O11" s="8"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="9"/>
+      <c r="S11" s="85"/>
+      <c r="T11" s="51"/>
+      <c r="U11" s="89"/>
+      <c r="W11" s="88"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="86"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A12" s="75" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" s="31"/>
-      <c r="C12" s="68"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="45"/>
-      <c r="G12" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>90</v>
+      <c r="A12" s="69" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="25"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="40"/>
+      <c r="G12" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="J12" s="1"/>
-      <c r="K12" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="M12" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="O12" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="P12" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q12" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="S12" s="9"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="10"/>
-      <c r="W12" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="X12" s="4"/>
-      <c r="Y12" s="10" t="s">
-        <v>3</v>
-      </c>
+      <c r="K12" s="8"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="9"/>
+      <c r="O12" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q12" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="S12" s="88"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="86"/>
+      <c r="W12" s="88"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="86"/>
     </row>
-    <row r="13" spans="1:25" s="52" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="73" t="s">
-        <v>53</v>
-      </c>
-      <c r="B13" s="54"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="56"/>
-      <c r="G13" s="61" t="s">
-        <v>53</v>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A13" s="70" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="26"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="40"/>
+      <c r="G13" s="15" t="s">
+        <v>47</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I13" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="J13" s="60"/>
-      <c r="K13" s="61" t="s">
-        <v>53</v>
-      </c>
-      <c r="L13" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="M13" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="O13" s="61" t="s">
-        <v>53</v>
-      </c>
-      <c r="P13" s="62" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q13" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="S13" s="61"/>
-      <c r="T13" s="62"/>
-      <c r="U13" s="63"/>
-      <c r="W13" s="61" t="s">
-        <v>11</v>
-      </c>
-      <c r="X13" s="62"/>
-      <c r="Y13" s="63" t="s">
-        <v>3</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="J13" s="1"/>
+      <c r="K13" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M13" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="O13" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q13" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="S13" s="90"/>
+      <c r="T13" s="55"/>
+      <c r="U13" s="91"/>
+      <c r="W13" s="88"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="86"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A14" s="76" t="s">
-        <v>56</v>
-      </c>
-      <c r="B14" s="32"/>
-      <c r="C14" s="68"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="45"/>
-      <c r="G14" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="H14" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="J14" s="1"/>
-      <c r="K14" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="L14" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="M14" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="O14" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="P14" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q14" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="S14" s="9"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="10"/>
-      <c r="W14" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="X14" s="4"/>
-      <c r="Y14" s="10" t="s">
-        <v>3</v>
-      </c>
+    <row r="14" spans="1:25" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="68" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="47"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="49"/>
+      <c r="G14" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="J14" s="53"/>
+      <c r="K14" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="L14" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="M14" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="O14" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="P14" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q14" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="S14" s="85"/>
+      <c r="T14" s="51"/>
+      <c r="U14" s="89"/>
+      <c r="W14" s="90"/>
+      <c r="X14" s="55"/>
+      <c r="Y14" s="91"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A15" s="74" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="45"/>
-      <c r="G15" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>90</v>
+      <c r="A15" s="71" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="27"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="40"/>
+      <c r="G15" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="J15" s="1"/>
-      <c r="K15" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="L15" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="M15" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="O15" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="P15" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q15" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="S15" s="9"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="10"/>
-      <c r="W15" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="X15" s="4"/>
-      <c r="Y15" s="10" t="s">
-        <v>3</v>
-      </c>
+      <c r="K15" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="L15" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="M15" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="O15" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="P15" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q15" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="S15" s="87"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="86"/>
+      <c r="W15" s="88"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="86"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16" s="74" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="30"/>
-      <c r="C16" s="68"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="45"/>
-      <c r="G16" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I16" s="10" t="s">
-        <v>90</v>
+      <c r="A16" s="69" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="25"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="40"/>
+      <c r="G16" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="J16" s="1"/>
-      <c r="K16" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="L16" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="M16" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="O16" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="P16" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q16" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="S16" s="9"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="10"/>
-      <c r="W16" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="X16" s="4"/>
-      <c r="Y16" s="10" t="s">
-        <v>3</v>
-      </c>
+      <c r="K16" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M16" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="O16" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q16" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="S16" s="88"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="86"/>
+      <c r="W16" s="88"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="86"/>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A17" s="74" t="s">
+      <c r="A17" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="30"/>
-      <c r="C17" s="68"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="45"/>
-      <c r="G17" s="9" t="s">
+      <c r="B17" s="25"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="40"/>
+      <c r="G17" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="H17" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I17" s="10" t="s">
-        <v>90</v>
+      <c r="H17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="J17" s="1"/>
-      <c r="K17" s="9" t="s">
+      <c r="K17" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="L17" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="M17" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="O17" s="9" t="s">
+      <c r="L17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M17" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="O17" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="P17" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q17" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="S17" s="9"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="10"/>
-      <c r="W17" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="X17" s="4"/>
-      <c r="Y17" s="10" t="s">
-        <v>3</v>
-      </c>
+      <c r="P17" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q17" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="S17" s="88"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="86"/>
+      <c r="W17" s="88"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="86"/>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A18" s="74" t="s">
-        <v>51</v>
-      </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="68"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="45"/>
-      <c r="G18" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I18" s="10" t="s">
-        <v>90</v>
+      <c r="A18" s="69" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="25"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="40"/>
+      <c r="G18" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="J18" s="1"/>
-      <c r="K18" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="L18" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M18" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="O18" s="9"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="10"/>
-      <c r="S18" s="9"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="10"/>
-      <c r="W18" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="X18" s="4"/>
-      <c r="Y18" s="10" t="s">
-        <v>3</v>
-      </c>
+      <c r="K18" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M18" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="O18" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q18" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="S18" s="88"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="86"/>
+      <c r="W18" s="88"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="86"/>
     </row>
-    <row r="19" spans="1:25" s="52" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="73" t="s">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A19" s="69" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="25"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="40"/>
+      <c r="G19" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="J19" s="1"/>
+      <c r="K19" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M19" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="O19" s="8"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="9"/>
+      <c r="S19" s="88"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="86"/>
+      <c r="W19" s="88"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="86"/>
+    </row>
+    <row r="20" spans="1:25" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="54"/>
-      <c r="C19" s="67"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="56"/>
-      <c r="G19" s="61" t="s">
+      <c r="B20" s="47"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="49"/>
+      <c r="G20" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="H20" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I19" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="J19" s="60"/>
-      <c r="K19" s="61" t="s">
+      <c r="I20" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="J20" s="53"/>
+      <c r="K20" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="L19" s="62" t="s">
+      <c r="L20" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="M19" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="O19" s="61" t="s">
+      <c r="M20" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="O20" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="P19" s="62" t="s">
+      <c r="P20" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="Q19" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="S19" s="61"/>
-      <c r="T19" s="62"/>
-      <c r="U19" s="63"/>
-      <c r="W19" s="61" t="s">
-        <v>2</v>
-      </c>
-      <c r="X19" s="62"/>
-      <c r="Y19" s="63" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A20" s="74" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" s="30"/>
-      <c r="C20" s="68"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="45"/>
-      <c r="G20" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I20" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="J20" s="1"/>
-      <c r="K20" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="L20" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="M20" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="O20" s="9"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="10"/>
-      <c r="S20" s="9"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="10"/>
-      <c r="W20" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="X20" s="4"/>
-      <c r="Y20" s="10" t="s">
-        <v>3</v>
-      </c>
+      <c r="Q20" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="S20" s="90"/>
+      <c r="T20" s="55"/>
+      <c r="U20" s="91"/>
+      <c r="W20" s="90"/>
+      <c r="X20" s="55"/>
+      <c r="Y20" s="91"/>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A21" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="30"/>
-      <c r="C21" s="68"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="45"/>
-      <c r="G21" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="I21" s="10" t="s">
-        <v>90</v>
+      <c r="A21" s="69" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="25"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="40"/>
+      <c r="G21" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="J21" s="1"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="17"/>
-      <c r="O21" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="P21" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="S21" s="16"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="17"/>
-      <c r="W21" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="X21" s="5"/>
-      <c r="Y21" s="17" t="s">
-        <v>3</v>
-      </c>
+      <c r="K21" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M21" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="O21" s="8"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="9"/>
+      <c r="S21" s="88"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="86"/>
+      <c r="W21" s="88"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="86"/>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A22" s="75" t="s">
-        <v>66</v>
-      </c>
-      <c r="B22" s="30"/>
-      <c r="C22" s="68"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="45"/>
-      <c r="G22" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="I22" s="10" t="s">
-        <v>90</v>
+      <c r="A22" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="25"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="40"/>
+      <c r="G22" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="J22" s="1"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="17"/>
-      <c r="O22" s="16"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="10"/>
-      <c r="S22" s="16"/>
-      <c r="T22" s="5"/>
-      <c r="U22" s="17"/>
-      <c r="W22" s="16"/>
-      <c r="X22" s="5"/>
-      <c r="Y22" s="17"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="16"/>
+      <c r="O22" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="P22" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="S22" s="92"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="93"/>
+      <c r="W22" s="92"/>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="93"/>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A23" s="75" t="s">
-        <v>67</v>
-      </c>
-      <c r="B23" s="31"/>
-      <c r="C23" s="79"/>
-      <c r="D23" s="80"/>
-      <c r="E23" s="81"/>
-      <c r="G23" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="H23" s="5"/>
-      <c r="I23" s="10" t="s">
-        <v>90</v>
+      <c r="A23" s="70" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="25"/>
+      <c r="C23" s="61"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="40"/>
+      <c r="G23" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="J23" s="1"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="17"/>
-      <c r="O23" s="16"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="10"/>
-      <c r="S23" s="16"/>
-      <c r="T23" s="5"/>
-      <c r="U23" s="17"/>
-      <c r="W23" s="16"/>
-      <c r="X23" s="5"/>
-      <c r="Y23" s="17"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="16"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="9"/>
+      <c r="S23" s="92"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="93"/>
+      <c r="W23" s="92"/>
+      <c r="X23" s="4"/>
+      <c r="Y23" s="93"/>
     </row>
-    <row r="24" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="B24" s="33"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="46"/>
-      <c r="G24" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="H24" s="12"/>
-      <c r="I24" s="13" t="s">
-        <v>90</v>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A24" s="70" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="26"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="75"/>
+      <c r="E24" s="76"/>
+      <c r="G24" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="J24" s="1"/>
-      <c r="K24" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="L24" s="12"/>
-      <c r="M24" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="O24" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="P24" s="12"/>
-      <c r="Q24" s="13"/>
-      <c r="S24" s="11"/>
-      <c r="T24" s="12"/>
-      <c r="U24" s="13"/>
-      <c r="W24" s="11"/>
-      <c r="X24" s="12"/>
-      <c r="Y24" s="13"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="16"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="9"/>
+      <c r="S24" s="92"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="93"/>
+      <c r="W24" s="92"/>
+      <c r="X24" s="4"/>
+      <c r="Y24" s="93"/>
     </row>
-    <row r="25" spans="1:25" ht="7.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G25" s="7"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="8"/>
+    <row r="25" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="28"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="41"/>
+      <c r="G25" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="I25" s="12" t="s">
+        <v>74</v>
+      </c>
       <c r="J25" s="1"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="8"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="8"/>
-      <c r="S25" s="70"/>
-      <c r="T25" s="2"/>
-      <c r="U25" s="71"/>
-      <c r="V25" s="72"/>
-      <c r="W25" s="70"/>
-      <c r="X25" s="1"/>
-      <c r="Y25" s="8"/>
+      <c r="K25" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="L25" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="M25" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="O25" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="P25" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q25" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="S25" s="94"/>
+      <c r="T25" s="95"/>
+      <c r="U25" s="96"/>
+      <c r="W25" s="94"/>
+      <c r="X25" s="95"/>
+      <c r="Y25" s="96"/>
     </row>
-    <row r="26" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="G26" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="H26" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="I26" s="20" t="s">
+    <row r="26" spans="1:25" ht="7.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G26" s="6"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="7"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="7"/>
+      <c r="S26" s="63"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="64"/>
+      <c r="V26" s="65"/>
+      <c r="W26" s="63"/>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="7"/>
+    </row>
+    <row r="27" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="77" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="G27" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="K26" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="L26" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="M26" s="20" t="s">
+      <c r="I27" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="K27" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="L27" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="O26" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="P26" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q26" s="20" t="s">
+      <c r="M27" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="O27" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="P27" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="S26" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="T26" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="U26" s="20" t="s">
+      <c r="Q27" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="S27" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="T27" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="W26" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="X26" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y26" s="20" t="s">
+      <c r="U27" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="W27" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="X27" s="18" t="s">
         <v>25</v>
       </c>
+      <c r="Y27" s="19" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="27" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="77" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" s="88" t="s">
-        <v>58</v>
-      </c>
-      <c r="C27" s="89"/>
-      <c r="D27" s="90"/>
-      <c r="E27" s="41"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="10"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="10"/>
-      <c r="O27" s="9"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="10"/>
-      <c r="S27" s="9"/>
-      <c r="T27" s="4"/>
-      <c r="U27" s="10"/>
-      <c r="W27" s="9"/>
-      <c r="X27" s="4"/>
-      <c r="Y27" s="10"/>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A28" s="78" t="s">
-        <v>59</v>
-      </c>
-      <c r="B28" s="91" t="s">
-        <v>60</v>
-      </c>
-      <c r="C28" s="92"/>
-      <c r="D28" s="93"/>
-      <c r="E28" s="42"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="10"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="10"/>
-      <c r="O28" s="9"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="10"/>
-      <c r="S28" s="9"/>
-      <c r="T28" s="4"/>
-      <c r="U28" s="10"/>
-      <c r="W28" s="9"/>
-      <c r="X28" s="4"/>
-      <c r="Y28" s="10"/>
+    <row r="28" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="72" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="103" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="104"/>
+      <c r="D28" s="105"/>
+      <c r="E28" s="36"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="9"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="9"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="9"/>
+      <c r="S28" s="8"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="9"/>
+      <c r="W28" s="8"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="9"/>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A29" s="78" t="s">
-        <v>61</v>
-      </c>
-      <c r="B29" s="91" t="s">
-        <v>62</v>
-      </c>
-      <c r="C29" s="92"/>
-      <c r="D29" s="93"/>
-      <c r="E29" s="42"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="10"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="10"/>
-      <c r="O29" s="9"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="10"/>
-      <c r="S29" s="9"/>
-      <c r="T29" s="4"/>
-      <c r="U29" s="10"/>
-      <c r="W29" s="9"/>
-      <c r="X29" s="4"/>
-      <c r="Y29" s="10"/>
+      <c r="A29" s="73" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="106" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="107"/>
+      <c r="D29" s="108"/>
+      <c r="E29" s="37"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="9"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="9"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="9"/>
+      <c r="S29" s="8"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="9"/>
+      <c r="W29" s="8"/>
+      <c r="X29" s="3"/>
+      <c r="Y29" s="9"/>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A30" s="78" t="s">
-        <v>63</v>
-      </c>
-      <c r="B30" s="91" t="s">
-        <v>64</v>
-      </c>
-      <c r="C30" s="92"/>
-      <c r="D30" s="93"/>
-      <c r="E30" s="42"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="10"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="10"/>
-      <c r="O30" s="9"/>
-      <c r="P30" s="4"/>
-      <c r="Q30" s="10"/>
-      <c r="S30" s="9"/>
-      <c r="T30" s="4"/>
-      <c r="U30" s="10"/>
-      <c r="W30" s="9"/>
-      <c r="X30" s="4"/>
-      <c r="Y30" s="10"/>
+      <c r="A30" s="73" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="106" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="107"/>
+      <c r="D30" s="108"/>
+      <c r="E30" s="37"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="9"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="9"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="9"/>
+      <c r="S30" s="8"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="9"/>
+      <c r="W30" s="8"/>
+      <c r="X30" s="3"/>
+      <c r="Y30" s="9"/>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A31" s="78" t="s">
-        <v>65</v>
-      </c>
-      <c r="B31" s="91" t="s">
-        <v>39</v>
-      </c>
-      <c r="C31" s="92"/>
-      <c r="D31" s="93"/>
-      <c r="E31" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="G31" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I31" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="K31" s="9"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="10"/>
-      <c r="O31" s="9"/>
-      <c r="P31" s="4"/>
-      <c r="Q31" s="10"/>
-      <c r="S31" s="9"/>
-      <c r="T31" s="4"/>
-      <c r="U31" s="10"/>
-      <c r="W31" s="9"/>
-      <c r="X31" s="4"/>
-      <c r="Y31" s="10"/>
+      <c r="A31" s="73" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="106" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="107"/>
+      <c r="D31" s="108"/>
+      <c r="E31" s="37"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="9"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="9"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="9"/>
+      <c r="S31" s="8"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="9"/>
+      <c r="W31" s="8"/>
+      <c r="X31" s="3"/>
+      <c r="Y31" s="9"/>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A32" s="37"/>
-      <c r="B32" s="49"/>
-      <c r="C32" s="50"/>
-      <c r="D32" s="51"/>
-      <c r="E32" s="42"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="10"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="10"/>
-      <c r="O32" s="9"/>
-      <c r="P32" s="4"/>
-      <c r="Q32" s="10"/>
-      <c r="S32" s="9"/>
-      <c r="T32" s="4"/>
-      <c r="U32" s="10"/>
-      <c r="W32" s="9"/>
-      <c r="X32" s="4"/>
-      <c r="Y32" s="10"/>
+      <c r="A32" s="73"/>
+      <c r="B32" s="106"/>
+      <c r="C32" s="107"/>
+      <c r="D32" s="108"/>
+      <c r="E32" s="37"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="9"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="9"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="9"/>
+      <c r="S32" s="8"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="9"/>
+      <c r="W32" s="8"/>
+      <c r="X32" s="3"/>
+      <c r="Y32" s="9"/>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A33" s="37"/>
-      <c r="B33" s="94"/>
-      <c r="C33" s="95"/>
-      <c r="D33" s="96"/>
-      <c r="E33" s="42"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="10"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="10"/>
-      <c r="O33" s="9"/>
-      <c r="P33" s="4"/>
-      <c r="Q33" s="10"/>
-      <c r="S33" s="9"/>
-      <c r="T33" s="4"/>
-      <c r="U33" s="10"/>
-      <c r="W33" s="9"/>
-      <c r="X33" s="4"/>
-      <c r="Y33" s="10"/>
+      <c r="A33" s="32"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="37"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="9"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="9"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="9"/>
+      <c r="S33" s="8"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="9"/>
+      <c r="W33" s="8"/>
+      <c r="X33" s="3"/>
+      <c r="Y33" s="9"/>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A34" s="37"/>
-      <c r="B34" s="94"/>
-      <c r="C34" s="95"/>
-      <c r="D34" s="96"/>
-      <c r="E34" s="42"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="10"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="10"/>
-      <c r="O34" s="9"/>
-      <c r="P34" s="4"/>
-      <c r="Q34" s="10"/>
-      <c r="S34" s="9"/>
-      <c r="T34" s="4"/>
-      <c r="U34" s="10"/>
-      <c r="W34" s="9"/>
-      <c r="X34" s="4"/>
-      <c r="Y34" s="10"/>
+      <c r="A34" s="32"/>
+      <c r="B34" s="97"/>
+      <c r="C34" s="98"/>
+      <c r="D34" s="99"/>
+      <c r="E34" s="37"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="9"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="9"/>
+      <c r="O34" s="8"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="9"/>
+      <c r="S34" s="8"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="9"/>
+      <c r="W34" s="8"/>
+      <c r="X34" s="3"/>
+      <c r="Y34" s="9"/>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A35" s="37"/>
-      <c r="B35" s="94"/>
-      <c r="C35" s="95"/>
-      <c r="D35" s="96"/>
-      <c r="E35" s="42"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="10"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="10"/>
-      <c r="O35" s="9"/>
-      <c r="P35" s="4"/>
-      <c r="Q35" s="10"/>
-      <c r="S35" s="9"/>
-      <c r="T35" s="4"/>
-      <c r="U35" s="10"/>
-      <c r="W35" s="9"/>
-      <c r="X35" s="4"/>
-      <c r="Y35" s="10"/>
+      <c r="A35" s="32"/>
+      <c r="B35" s="97"/>
+      <c r="C35" s="98"/>
+      <c r="D35" s="99"/>
+      <c r="E35" s="37"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="9"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="9"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="9"/>
+      <c r="S35" s="8"/>
+      <c r="T35" s="3"/>
+      <c r="U35" s="9"/>
+      <c r="W35" s="8"/>
+      <c r="X35" s="3"/>
+      <c r="Y35" s="9"/>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A36" s="37"/>
-      <c r="B36" s="94"/>
-      <c r="C36" s="95"/>
-      <c r="D36" s="96"/>
-      <c r="E36" s="42"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="10"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="4"/>
-      <c r="M36" s="10"/>
-      <c r="O36" s="9"/>
-      <c r="P36" s="4"/>
-      <c r="Q36" s="10"/>
-      <c r="S36" s="9"/>
-      <c r="T36" s="4"/>
-      <c r="U36" s="10"/>
-      <c r="W36" s="9"/>
-      <c r="X36" s="4"/>
-      <c r="Y36" s="10"/>
+      <c r="A36" s="32"/>
+      <c r="B36" s="97"/>
+      <c r="C36" s="98"/>
+      <c r="D36" s="99"/>
+      <c r="E36" s="37"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="9"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="9"/>
+      <c r="O36" s="8"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="9"/>
+      <c r="S36" s="8"/>
+      <c r="T36" s="3"/>
+      <c r="U36" s="9"/>
+      <c r="W36" s="8"/>
+      <c r="X36" s="3"/>
+      <c r="Y36" s="9"/>
     </row>
-    <row r="37" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="38"/>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A37" s="32"/>
       <c r="B37" s="97"/>
       <c r="C37" s="98"/>
       <c r="D37" s="99"/>
-      <c r="E37" s="43"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="13"/>
-      <c r="K37" s="11"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="13"/>
-      <c r="O37" s="11"/>
-      <c r="P37" s="12"/>
-      <c r="Q37" s="13"/>
-      <c r="S37" s="11"/>
-      <c r="T37" s="12"/>
-      <c r="U37" s="13"/>
-      <c r="W37" s="11"/>
-      <c r="X37" s="12"/>
-      <c r="Y37" s="13"/>
+      <c r="E37" s="37"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="9"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="9"/>
+      <c r="O37" s="8"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="9"/>
+      <c r="S37" s="8"/>
+      <c r="T37" s="3"/>
+      <c r="U37" s="9"/>
+      <c r="W37" s="8"/>
+      <c r="X37" s="3"/>
+      <c r="Y37" s="9"/>
     </row>
-    <row r="38" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="33"/>
+      <c r="B38" s="100"/>
+      <c r="C38" s="101"/>
+      <c r="D38" s="102"/>
+      <c r="E38" s="38"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="12"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="12"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="11"/>
+      <c r="Q38" s="12"/>
+      <c r="S38" s="10"/>
+      <c r="T38" s="11"/>
+      <c r="U38" s="12"/>
+      <c r="W38" s="10"/>
+      <c r="X38" s="11"/>
+      <c r="Y38" s="12"/>
+    </row>
+    <row r="39" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection insertColumns="0" insertRows="0"/>
   <protectedRanges>
-    <protectedRange sqref="A24:H24 J24:P24 A6:X11 A12:P23 Q12:X24" name="Contact Fields"/>
-    <protectedRange sqref="A27:Y37 I24" name="Questionnaire"/>
+    <protectedRange sqref="A25:H25 A13:P24 Q13:X25 A12:X12 V11:X11 A11:T11 A9:X10 A8:Y8 A7:X7 J25:P25" name="Contact Fields"/>
+    <protectedRange sqref="A28:Y38 I25" name="Questionnaire"/>
+    <protectedRange sqref="A1" name="Titel"/>
   </protectedRanges>
   <mergeCells count="15">
-    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="B35:D35"/>
     <mergeCell ref="B36:D36"/>
     <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="S3:U3"/>
-    <mergeCell ref="W3:Y3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="B38:D38"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A25:AG25 A24:H24 J24:P24 B7:AG11 B12:P23 Q12:AG24">
-    <cfRule type="expression" dxfId="15" priority="19">
+  <conditionalFormatting sqref="A26:AG26 A25:H25 B13:P24 B8:F8 J8 Q16:AG25 N8:R8 Q13:R15 V13:AG15 B9:AG12 U7:U8 V8 Z8:AG8 J25:P25">
+    <cfRule type="expression" dxfId="33" priority="47">
       <formula>$C7="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="20">
+    <cfRule type="expression" dxfId="32" priority="48">
       <formula>$D7="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W27:Y37">
-    <cfRule type="expression" dxfId="13" priority="17">
-      <formula>$C27="x"</formula>
+  <conditionalFormatting sqref="W28:Y38">
+    <cfRule type="expression" dxfId="31" priority="45">
+      <formula>$C28="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="18">
-      <formula>$D27="x"</formula>
+    <cfRule type="expression" dxfId="30" priority="46">
+      <formula>$D28="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S27:U37">
-    <cfRule type="expression" dxfId="11" priority="15">
-      <formula>$C27="x"</formula>
+  <conditionalFormatting sqref="S28:U38">
+    <cfRule type="expression" dxfId="29" priority="43">
+      <formula>$C28="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="16">
-      <formula>$D27="x"</formula>
+    <cfRule type="expression" dxfId="28" priority="44">
+      <formula>$D28="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O27:Q37">
-    <cfRule type="expression" dxfId="9" priority="13">
-      <formula>$C27="x"</formula>
+  <conditionalFormatting sqref="O28:Q38">
+    <cfRule type="expression" dxfId="27" priority="41">
+      <formula>$C28="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="14">
-      <formula>$D27="x"</formula>
+    <cfRule type="expression" dxfId="26" priority="42">
+      <formula>$D28="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K27:M37">
-    <cfRule type="expression" dxfId="7" priority="11">
-      <formula>$C27="x"</formula>
+  <conditionalFormatting sqref="K28:M38">
+    <cfRule type="expression" dxfId="25" priority="39">
+      <formula>$C28="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="12">
-      <formula>$D27="x"</formula>
+    <cfRule type="expression" dxfId="24" priority="40">
+      <formula>$D28="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G27:I37">
-    <cfRule type="expression" dxfId="5" priority="9">
-      <formula>$C27="x"</formula>
+  <conditionalFormatting sqref="G28:I38">
+    <cfRule type="expression" dxfId="23" priority="37">
+      <formula>$C28="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="10">
-      <formula>$D27="x"</formula>
+    <cfRule type="expression" dxfId="22" priority="38">
+      <formula>$D28="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A7:A23">
-    <cfRule type="expression" dxfId="3" priority="7">
+  <conditionalFormatting sqref="A8:A24">
+    <cfRule type="expression" dxfId="21" priority="35">
+      <formula>$C8="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="36">
+      <formula>$D8="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I25">
+    <cfRule type="expression" dxfId="19" priority="29">
+      <formula>$C25="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="30">
+      <formula>$D25="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7:I8">
+    <cfRule type="expression" dxfId="17" priority="27">
       <formula>$C7="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="8">
+    <cfRule type="expression" dxfId="16" priority="28">
       <formula>$D7="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I24">
+  <conditionalFormatting sqref="G8:I8">
+    <cfRule type="expression" dxfId="15" priority="51">
+      <formula>$C13="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="52">
+      <formula>$D13="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S13:U13">
+    <cfRule type="expression" dxfId="13" priority="21">
+      <formula>$C13="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="22">
+      <formula>$D13="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S14:U15">
+    <cfRule type="expression" dxfId="11" priority="13">
+      <formula>$C14="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="14">
+      <formula>$D14="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S7:T8">
+    <cfRule type="expression" dxfId="9" priority="11">
+      <formula>$C7="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="12">
+      <formula>$D7="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W8:Y8">
+    <cfRule type="expression" dxfId="7" priority="7">
+      <formula>$C8="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="8">
+      <formula>$D8="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K8:M8">
+    <cfRule type="expression" dxfId="5" priority="3">
+      <formula>$C8="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="4">
+      <formula>$D8="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K8:M8">
+    <cfRule type="expression" dxfId="3" priority="5">
+      <formula>$C13="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="6">
+      <formula>$D13="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K7:M7">
     <cfRule type="expression" dxfId="1" priority="1">
-      <formula>$C24="x"</formula>
+      <formula>$C7="x"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="2">
-      <formula>$D24="x"</formula>
+      <formula>$D7="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7" xr:uid="{800895DA-5639-438C-B977-CBBACBEDFF96}">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8" xr:uid="{800895DA-5639-438C-B977-CBBACBEDFF96}">
       <formula1>"x"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I27:I37 I7:I24 M7:M24 Y7:Y24 U7:U24 U27:U37 Y27:Y37 Q27:Q37 M27:M37 Q7:Q24" xr:uid="{3E3248DC-C601-4015-BAB0-1D9714E0A92A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I28:I38 U7:U25 Q8:Q25 U28:U38 Y28:Y38 Q28:Q38 M28:M38 I7:I25 Y8:Y25 M7:M25" xr:uid="{3E3248DC-C601-4015-BAB0-1D9714E0A92A}">
       <formula1>"text,picklist,multi-picklist,lookup,date,number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C25 D7 D9:D25 Q7" xr:uid="{25196C70-295C-43FF-A050-7D2EA327A7B4}">
+      <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{25196C70-295C-43FF-A050-7D2EA327A7B4}">
-          <x14:formula1>
-            <xm:f>Tabelle1!$A$5</xm:f>
-          </x14:formula1>
-          <xm:sqref>C6:C24 D6 D8:D24</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1623A16F-2F10-4401-9B97-A5AEF558BF09}">
-          <x14:formula1>
-            <xm:f>Tabelle1!$A$9:$A$14</xm:f>
-          </x14:formula1>
-          <xm:sqref>Q6</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{563A60AD-FC63-4995-A0D1-C55DCDF4EBB2}">
-  <dimension ref="A1:A14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="83" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="82" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="82"/>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="82" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>78</v>
-      </c>
-    </row>
-  </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="184zbXKFtCDmRNbqj+BaFGQ6zTk3fXeNFo41w/QWRBszI77xhpHazlNyJ8vgdMFBoOPDpjMlz5aX2IJILkyL0w==" saltValue="jYpXS03diE3FbozAcs5U6A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -3600,12 +3908,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010060A44420B6B801499790497461B7617A" ma:contentTypeVersion="11" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="fabbcee23a04d27af1ae9e54f4461bef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8f774076-1ef3-4740-8929-5969f04599b3" xmlns:ns4="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c03e0335abb4116b770311e5abaeb524" ns3:_="" ns4:_="">
     <xsd:import namespace="8f774076-1ef3-4740-8929-5969f04599b3"/>
@@ -3814,6 +4116,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
   <ds:schemaRefs>
@@ -3823,23 +4131,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDAAE1C4-DB1B-4159-B8B9-55C0242E8521}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="8f774076-1ef3-4740-8929-5969f04599b3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4CDBC7-0A6E-420D-A4CD-91BDFDE80302}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3856,4 +4147,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDAAE1C4-DB1B-4159-B8B9-55C0242E8521}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="8f774076-1ef3-4740-8929-5969f04599b3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/default-mappings-xlsx/grabber/Grabber_Mapping_Salesforce_DE.xlsx
+++ b/default-mappings-xlsx/grabber/Grabber_Mapping_Salesforce_DE.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\Neue Vorlagen\Grabber\Salesforce\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\Neue Vorlagen\Export Ready\grabber\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E54C8E01-71CE-4E61-AF3B-42A23F49C946}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A46E6B51-1AE6-4AA9-9812-8FC008AB449C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,6 +27,44 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Valentin Schönrock</author>
+  </authors>
+  <commentList>
+    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{F7DF01D7-91CC-4F36-A3C7-7C5871994521}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>"x" eingeben, wenn dieses Feld ausgefüllt sein muss</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D7" authorId="0" shapeId="0" xr:uid="{FCBE060C-1FD5-4A64-9390-B49F69106226}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>"x" eingeben, wenn dieses Feld nicht benötigt wird</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="79">
   <si>
@@ -142,9 +180,6 @@
   </si>
   <si>
     <t>Default Value</t>
-  </si>
-  <si>
-    <t>SF: Custom Entity (optional)</t>
   </si>
   <si>
     <r>
@@ -273,9 +308,6 @@
     <t>Pflichtfeld</t>
   </si>
   <si>
-    <t>SF: Custom Entity</t>
-  </si>
-  <si>
     <t>nicht benötigt</t>
   </si>
   <si>
@@ -295,13 +327,19 @@
   </si>
   <si>
     <t>RecordTypeId</t>
+  </si>
+  <si>
+    <t>SF: Additional Entity (optional)</t>
+  </si>
+  <si>
+    <t>SF: Additional Entity</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -383,6 +421,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -422,7 +467,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="75">
+  <borders count="76">
     <border>
       <left/>
       <right/>
@@ -1365,6 +1410,21 @@
       </top>
       <bottom style="thick">
         <color theme="4" tint="0.59996337778862885"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFEFFE1"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF9DA600"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF9DA600"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF9DA600"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1506,9 +1566,6 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1524,23 +1581,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
@@ -1560,17 +1614,23 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2034,9 +2094,9 @@
   </tableStyles>
   <colors>
     <mruColors>
+      <color rgb="FFFEFFE1"/>
       <color rgb="FF9DA600"/>
       <color rgb="FFFE6C36"/>
-      <color rgb="FFFEFFE1"/>
     </mruColors>
   </colors>
   <extLst>
@@ -2500,11 +2560,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5027446F-BBDF-4A57-AA45-BC7D0EB64201}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5027446F-BBDF-4A57-AA45-BC7D0EB64201}">
   <dimension ref="A1:Y39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:XFD32"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -2528,7 +2588,7 @@
   <sheetData>
     <row r="1" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="67" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1" s="66"/>
       <c r="C1" s="66"/>
@@ -2558,38 +2618,38 @@
       </c>
       <c r="B4" s="23"/>
       <c r="C4" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="D4" s="34" t="s">
-        <v>72</v>
-      </c>
       <c r="E4" s="35"/>
-      <c r="G4" s="112" t="s">
+      <c r="G4" s="100" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="112"/>
-      <c r="I4" s="112"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
       <c r="J4" s="5"/>
-      <c r="K4" s="112" t="s">
+      <c r="K4" s="100" t="s">
         <v>29</v>
       </c>
-      <c r="L4" s="112"/>
-      <c r="M4" s="112"/>
-      <c r="O4" s="112" t="s">
+      <c r="L4" s="100"/>
+      <c r="M4" s="100"/>
+      <c r="O4" s="100" t="s">
         <v>30</v>
       </c>
-      <c r="P4" s="112"/>
-      <c r="Q4" s="112"/>
-      <c r="S4" s="109" t="s">
-        <v>38</v>
-      </c>
-      <c r="T4" s="110"/>
-      <c r="U4" s="111"/>
-      <c r="W4" s="109" t="s">
-        <v>71</v>
-      </c>
-      <c r="X4" s="110"/>
-      <c r="Y4" s="111"/>
+      <c r="P4" s="100"/>
+      <c r="Q4" s="100"/>
+      <c r="S4" s="97" t="s">
+        <v>77</v>
+      </c>
+      <c r="T4" s="98"/>
+      <c r="U4" s="99"/>
+      <c r="W4" s="97" t="s">
+        <v>78</v>
+      </c>
+      <c r="X4" s="98"/>
+      <c r="Y4" s="99"/>
     </row>
     <row r="5" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2599,7 +2659,7 @@
       <c r="B6" s="57"/>
       <c r="C6" s="58"/>
       <c r="D6" s="80"/>
-      <c r="E6" s="81" t="s">
+      <c r="E6" s="96" t="s">
         <v>37</v>
       </c>
       <c r="G6" s="17" t="s">
@@ -2630,22 +2690,22 @@
       <c r="Q6" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="S6" s="82" t="s">
+      <c r="S6" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="T6" s="83" t="s">
+      <c r="T6" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="U6" s="84" t="s">
+      <c r="U6" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="W6" s="82" t="s">
+      <c r="W6" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="X6" s="83" t="s">
+      <c r="X6" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="Y6" s="84" t="s">
+      <c r="Y6" s="83" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2665,502 +2725,502 @@
       <c r="O7" s="15"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="16"/>
-      <c r="S7" s="85" t="s">
+      <c r="S7" s="84" t="s">
         <v>31</v>
       </c>
       <c r="T7" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="U7" s="86"/>
-      <c r="W7" s="92"/>
+      <c r="U7" s="85"/>
+      <c r="W7" s="91"/>
       <c r="X7" s="4"/>
-      <c r="Y7" s="93"/>
+      <c r="Y7" s="92"/>
     </row>
     <row r="8" spans="1:25" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="68" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" s="47" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C8" s="60"/>
       <c r="D8" s="48"/>
       <c r="E8" s="49"/>
       <c r="G8" s="50" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H8" s="51" t="s">
         <v>3</v>
       </c>
       <c r="I8" s="52" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J8" s="53"/>
       <c r="K8" s="50" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L8" s="51" t="s">
         <v>3</v>
       </c>
       <c r="M8" s="52" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O8" s="54"/>
       <c r="P8" s="55"/>
       <c r="Q8" s="56"/>
-      <c r="S8" s="87" t="s">
+      <c r="S8" s="86" t="s">
         <v>33</v>
       </c>
       <c r="T8" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="U8" s="86"/>
-      <c r="W8" s="88"/>
+      <c r="U8" s="85"/>
+      <c r="W8" s="87"/>
       <c r="X8" s="3"/>
-      <c r="Y8" s="86"/>
+      <c r="Y8" s="85"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="69" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B9" s="25"/>
       <c r="C9" s="61"/>
       <c r="D9" s="30"/>
       <c r="E9" s="40"/>
       <c r="G9" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I9" s="52" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O9" s="8"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="9"/>
-      <c r="S9" s="88"/>
+      <c r="S9" s="87"/>
       <c r="T9" s="3"/>
-      <c r="U9" s="86"/>
-      <c r="W9" s="88"/>
+      <c r="U9" s="85"/>
+      <c r="W9" s="87"/>
       <c r="X9" s="3"/>
-      <c r="Y9" s="86"/>
+      <c r="Y9" s="85"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="69" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B10" s="25"/>
       <c r="C10" s="61"/>
       <c r="D10" s="30"/>
       <c r="E10" s="40"/>
       <c r="G10" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O10" s="8"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="9"/>
-      <c r="S10" s="88"/>
+      <c r="S10" s="87"/>
       <c r="T10" s="3"/>
-      <c r="U10" s="86"/>
-      <c r="W10" s="88"/>
+      <c r="U10" s="85"/>
+      <c r="W10" s="87"/>
       <c r="X10" s="3"/>
-      <c r="Y10" s="86"/>
+      <c r="Y10" s="85"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="69" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="61"/>
       <c r="D11" s="30"/>
       <c r="E11" s="40"/>
       <c r="G11" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>6</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L11" s="3" t="s">
         <v>6</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O11" s="8"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="9"/>
-      <c r="S11" s="85"/>
+      <c r="S11" s="84"/>
       <c r="T11" s="51"/>
-      <c r="U11" s="89"/>
-      <c r="W11" s="88"/>
+      <c r="U11" s="88"/>
+      <c r="W11" s="87"/>
       <c r="X11" s="3"/>
-      <c r="Y11" s="86"/>
+      <c r="Y11" s="85"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="69" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="61"/>
       <c r="D12" s="30"/>
       <c r="E12" s="40"/>
       <c r="G12" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>7</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="8"/>
       <c r="L12" s="3"/>
       <c r="M12" s="9"/>
       <c r="O12" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P12" s="3" t="s">
         <v>21</v>
       </c>
       <c r="Q12" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="S12" s="88"/>
+        <v>71</v>
+      </c>
+      <c r="S12" s="87"/>
       <c r="T12" s="3"/>
-      <c r="U12" s="86"/>
-      <c r="W12" s="88"/>
+      <c r="U12" s="85"/>
+      <c r="W12" s="87"/>
       <c r="X12" s="3"/>
-      <c r="Y12" s="86"/>
+      <c r="Y12" s="85"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="70" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B13" s="26"/>
       <c r="C13" s="61"/>
       <c r="D13" s="30"/>
       <c r="E13" s="40"/>
       <c r="G13" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>8</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L13" s="4" t="s">
         <v>16</v>
       </c>
       <c r="M13" s="16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O13" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q13" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="S13" s="90"/>
+        <v>71</v>
+      </c>
+      <c r="S13" s="89"/>
       <c r="T13" s="55"/>
-      <c r="U13" s="91"/>
-      <c r="W13" s="88"/>
+      <c r="U13" s="90"/>
+      <c r="W13" s="87"/>
       <c r="X13" s="3"/>
-      <c r="Y13" s="86"/>
+      <c r="Y13" s="85"/>
     </row>
     <row r="14" spans="1:25" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="68" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B14" s="47"/>
       <c r="C14" s="60"/>
       <c r="D14" s="48"/>
       <c r="E14" s="49"/>
       <c r="G14" s="54" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>9</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J14" s="53"/>
       <c r="K14" s="54" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L14" s="55" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O14" s="54" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P14" s="55" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Q14" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="S14" s="85"/>
+        <v>71</v>
+      </c>
+      <c r="S14" s="84"/>
       <c r="T14" s="51"/>
-      <c r="U14" s="89"/>
-      <c r="W14" s="90"/>
+      <c r="U14" s="88"/>
+      <c r="W14" s="89"/>
       <c r="X14" s="55"/>
-      <c r="Y14" s="91"/>
+      <c r="Y14" s="90"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="71" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B15" s="27"/>
       <c r="C15" s="61"/>
       <c r="D15" s="30"/>
       <c r="E15" s="40"/>
       <c r="G15" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H15" s="14" t="s">
         <v>10</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L15" s="14" t="s">
         <v>18</v>
       </c>
       <c r="M15" s="16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O15" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P15" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q15" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="S15" s="87"/>
+        <v>71</v>
+      </c>
+      <c r="S15" s="86"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="86"/>
-      <c r="W15" s="88"/>
+      <c r="U15" s="85"/>
+      <c r="W15" s="87"/>
       <c r="X15" s="3"/>
-      <c r="Y15" s="86"/>
+      <c r="Y15" s="85"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="69" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="61"/>
       <c r="D16" s="30"/>
       <c r="E16" s="40"/>
       <c r="G16" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L16" s="3" t="s">
         <v>19</v>
       </c>
       <c r="M16" s="16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O16" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q16" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="S16" s="88"/>
+        <v>71</v>
+      </c>
+      <c r="S16" s="87"/>
       <c r="T16" s="3"/>
-      <c r="U16" s="86"/>
-      <c r="W16" s="88"/>
+      <c r="U16" s="85"/>
+      <c r="W16" s="87"/>
       <c r="X16" s="3"/>
-      <c r="Y16" s="86"/>
+      <c r="Y16" s="85"/>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="69" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="61"/>
       <c r="D17" s="30"/>
       <c r="E17" s="40"/>
       <c r="G17" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>12</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L17" s="3" t="s">
         <v>20</v>
       </c>
       <c r="M17" s="16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O17" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q17" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="S17" s="88"/>
+        <v>71</v>
+      </c>
+      <c r="S17" s="87"/>
       <c r="T17" s="3"/>
-      <c r="U17" s="86"/>
-      <c r="W17" s="88"/>
+      <c r="U17" s="85"/>
+      <c r="W17" s="87"/>
       <c r="X17" s="3"/>
-      <c r="Y17" s="86"/>
+      <c r="Y17" s="85"/>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="69" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B18" s="25"/>
       <c r="C18" s="61"/>
       <c r="D18" s="30"/>
       <c r="E18" s="40"/>
       <c r="G18" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>13</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L18" s="3" t="s">
         <v>13</v>
       </c>
       <c r="M18" s="16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O18" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P18" s="3" t="s">
         <v>13</v>
       </c>
       <c r="Q18" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="S18" s="88"/>
+        <v>71</v>
+      </c>
+      <c r="S18" s="87"/>
       <c r="T18" s="3"/>
-      <c r="U18" s="86"/>
-      <c r="W18" s="88"/>
+      <c r="U18" s="85"/>
+      <c r="W18" s="87"/>
       <c r="X18" s="3"/>
-      <c r="Y18" s="86"/>
+      <c r="Y18" s="85"/>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="69" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B19" s="25"/>
       <c r="C19" s="61"/>
       <c r="D19" s="30"/>
       <c r="E19" s="40"/>
       <c r="G19" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>14</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L19" s="3" t="s">
         <v>14</v>
       </c>
       <c r="M19" s="16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O19" s="8"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="9"/>
-      <c r="S19" s="88"/>
+      <c r="S19" s="87"/>
       <c r="T19" s="3"/>
-      <c r="U19" s="86"/>
-      <c r="W19" s="88"/>
+      <c r="U19" s="85"/>
+      <c r="W19" s="87"/>
       <c r="X19" s="3"/>
-      <c r="Y19" s="86"/>
+      <c r="Y19" s="85"/>
     </row>
     <row r="20" spans="1:25" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="68" t="s">
@@ -3177,7 +3237,7 @@
         <v>2</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J20" s="53"/>
       <c r="K20" s="54" t="s">
@@ -3187,7 +3247,7 @@
         <v>2</v>
       </c>
       <c r="M20" s="16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O20" s="54" t="s">
         <v>2</v>
@@ -3196,14 +3256,14 @@
         <v>2</v>
       </c>
       <c r="Q20" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="S20" s="90"/>
+        <v>71</v>
+      </c>
+      <c r="S20" s="89"/>
       <c r="T20" s="55"/>
-      <c r="U20" s="91"/>
-      <c r="W20" s="90"/>
+      <c r="U20" s="90"/>
+      <c r="W20" s="89"/>
       <c r="X20" s="55"/>
-      <c r="Y20" s="91"/>
+      <c r="Y20" s="90"/>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="69" t="s">
@@ -3220,7 +3280,7 @@
         <v>15</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="8" t="s">
@@ -3230,17 +3290,17 @@
         <v>15</v>
       </c>
       <c r="M21" s="16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O21" s="8"/>
       <c r="P21" s="3"/>
       <c r="Q21" s="9"/>
-      <c r="S21" s="88"/>
+      <c r="S21" s="87"/>
       <c r="T21" s="3"/>
-      <c r="U21" s="86"/>
-      <c r="W21" s="88"/>
+      <c r="U21" s="85"/>
+      <c r="W21" s="87"/>
       <c r="X21" s="3"/>
-      <c r="Y21" s="86"/>
+      <c r="Y21" s="85"/>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="70" t="s">
@@ -3257,7 +3317,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="15"/>
@@ -3270,31 +3330,31 @@
         <v>0</v>
       </c>
       <c r="Q22" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="S22" s="92"/>
+        <v>71</v>
+      </c>
+      <c r="S22" s="91"/>
       <c r="T22" s="4"/>
-      <c r="U22" s="93"/>
-      <c r="W22" s="92"/>
+      <c r="U22" s="92"/>
+      <c r="W22" s="91"/>
       <c r="X22" s="4"/>
-      <c r="Y22" s="93"/>
+      <c r="Y22" s="92"/>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="70" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B23" s="25"/>
       <c r="C23" s="61"/>
       <c r="D23" s="30"/>
       <c r="E23" s="40"/>
       <c r="G23" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J23" s="1"/>
       <c r="K23" s="15"/>
@@ -3303,29 +3363,29 @@
       <c r="O23" s="15"/>
       <c r="P23" s="4"/>
       <c r="Q23" s="9"/>
-      <c r="S23" s="92"/>
+      <c r="S23" s="91"/>
       <c r="T23" s="4"/>
-      <c r="U23" s="93"/>
-      <c r="W23" s="92"/>
+      <c r="U23" s="92"/>
+      <c r="W23" s="91"/>
       <c r="X23" s="4"/>
-      <c r="Y23" s="93"/>
+      <c r="Y23" s="92"/>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="70" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B24" s="26"/>
       <c r="C24" s="74"/>
       <c r="D24" s="75"/>
       <c r="E24" s="76"/>
       <c r="G24" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J24" s="1"/>
       <c r="K24" s="15"/>
@@ -3334,55 +3394,55 @@
       <c r="O24" s="15"/>
       <c r="P24" s="4"/>
       <c r="Q24" s="9"/>
-      <c r="S24" s="92"/>
+      <c r="S24" s="91"/>
       <c r="T24" s="4"/>
-      <c r="U24" s="93"/>
-      <c r="W24" s="92"/>
+      <c r="U24" s="92"/>
+      <c r="W24" s="91"/>
       <c r="X24" s="4"/>
-      <c r="Y24" s="93"/>
+      <c r="Y24" s="92"/>
     </row>
     <row r="25" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B25" s="28"/>
       <c r="C25" s="62"/>
       <c r="D25" s="31"/>
       <c r="E25" s="41"/>
       <c r="G25" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J25" s="1"/>
       <c r="K25" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L25" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M25" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="O25" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="O25" s="10" t="s">
+      <c r="P25" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="P25" s="11" t="s">
-        <v>78</v>
-      </c>
       <c r="Q25" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="S25" s="94"/>
-      <c r="T25" s="95"/>
-      <c r="U25" s="96"/>
-      <c r="W25" s="94"/>
-      <c r="X25" s="95"/>
-      <c r="Y25" s="96"/>
+        <v>72</v>
+      </c>
+      <c r="S25" s="93"/>
+      <c r="T25" s="94"/>
+      <c r="U25" s="95"/>
+      <c r="W25" s="93"/>
+      <c r="X25" s="94"/>
+      <c r="Y25" s="95"/>
     </row>
     <row r="26" spans="1:25" ht="7.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G26" s="6"/>
@@ -3463,13 +3523,13 @@
     </row>
     <row r="28" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28" s="72" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="101" t="s">
         <v>52</v>
       </c>
-      <c r="B28" s="103" t="s">
-        <v>53</v>
-      </c>
-      <c r="C28" s="104"/>
-      <c r="D28" s="105"/>
+      <c r="C28" s="102"/>
+      <c r="D28" s="103"/>
       <c r="E28" s="36"/>
       <c r="G28" s="8"/>
       <c r="H28" s="3"/>
@@ -3489,13 +3549,13 @@
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="73" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" s="104" t="s">
         <v>54</v>
       </c>
-      <c r="B29" s="106" t="s">
-        <v>55</v>
-      </c>
-      <c r="C29" s="107"/>
-      <c r="D29" s="108"/>
+      <c r="C29" s="105"/>
+      <c r="D29" s="106"/>
       <c r="E29" s="37"/>
       <c r="G29" s="8"/>
       <c r="H29" s="3"/>
@@ -3515,13 +3575,13 @@
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="73" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" s="104" t="s">
         <v>56</v>
       </c>
-      <c r="B30" s="106" t="s">
-        <v>57</v>
-      </c>
-      <c r="C30" s="107"/>
-      <c r="D30" s="108"/>
+      <c r="C30" s="105"/>
+      <c r="D30" s="106"/>
       <c r="E30" s="37"/>
       <c r="G30" s="8"/>
       <c r="H30" s="3"/>
@@ -3541,13 +3601,13 @@
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="73" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="104" t="s">
         <v>58</v>
       </c>
-      <c r="B31" s="106" t="s">
-        <v>59</v>
-      </c>
-      <c r="C31" s="107"/>
-      <c r="D31" s="108"/>
+      <c r="C31" s="105"/>
+      <c r="D31" s="106"/>
       <c r="E31" s="37"/>
       <c r="G31" s="8"/>
       <c r="H31" s="3"/>
@@ -3567,9 +3627,9 @@
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="73"/>
-      <c r="B32" s="106"/>
-      <c r="C32" s="107"/>
-      <c r="D32" s="108"/>
+      <c r="B32" s="104"/>
+      <c r="C32" s="105"/>
+      <c r="D32" s="106"/>
       <c r="E32" s="37"/>
       <c r="G32" s="8"/>
       <c r="H32" s="3"/>
@@ -3611,9 +3671,9 @@
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="32"/>
-      <c r="B34" s="97"/>
-      <c r="C34" s="98"/>
-      <c r="D34" s="99"/>
+      <c r="B34" s="107"/>
+      <c r="C34" s="108"/>
+      <c r="D34" s="109"/>
       <c r="E34" s="37"/>
       <c r="G34" s="8"/>
       <c r="H34" s="3"/>
@@ -3633,9 +3693,9 @@
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="32"/>
-      <c r="B35" s="97"/>
-      <c r="C35" s="98"/>
-      <c r="D35" s="99"/>
+      <c r="B35" s="107"/>
+      <c r="C35" s="108"/>
+      <c r="D35" s="109"/>
       <c r="E35" s="37"/>
       <c r="G35" s="8"/>
       <c r="H35" s="3"/>
@@ -3655,9 +3715,9 @@
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="32"/>
-      <c r="B36" s="97"/>
-      <c r="C36" s="98"/>
-      <c r="D36" s="99"/>
+      <c r="B36" s="107"/>
+      <c r="C36" s="108"/>
+      <c r="D36" s="109"/>
       <c r="E36" s="37"/>
       <c r="G36" s="8"/>
       <c r="H36" s="3"/>
@@ -3677,9 +3737,9 @@
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="32"/>
-      <c r="B37" s="97"/>
-      <c r="C37" s="98"/>
-      <c r="D37" s="99"/>
+      <c r="B37" s="107"/>
+      <c r="C37" s="108"/>
+      <c r="D37" s="109"/>
       <c r="E37" s="37"/>
       <c r="G37" s="8"/>
       <c r="H37" s="3"/>
@@ -3699,9 +3759,9 @@
     </row>
     <row r="38" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="33"/>
-      <c r="B38" s="100"/>
-      <c r="C38" s="101"/>
-      <c r="D38" s="102"/>
+      <c r="B38" s="110"/>
+      <c r="C38" s="111"/>
+      <c r="D38" s="112"/>
       <c r="E38" s="38"/>
       <c r="G38" s="10"/>
       <c r="H38" s="11"/>
@@ -3728,21 +3788,21 @@
     <protectedRange sqref="A1" name="Titel"/>
   </protectedRanges>
   <mergeCells count="15">
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
     <mergeCell ref="S4:U4"/>
     <mergeCell ref="W4:Y4"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A26:AG26 A25:H25 B13:P24 B8:F8 J8 Q16:AG25 N8:R8 Q13:R15 V13:AG15 B9:AG12 U7:U8 V8 Z8:AG8 J25:P25">
@@ -3885,29 +3945,21 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8" xr:uid="{800895DA-5639-438C-B977-CBBACBEDFF96}">
       <formula1>"x"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I28:I38 U7:U25 Q8:Q25 U28:U38 Y28:Y38 Q28:Q38 M28:M38 I7:I25 Y8:Y25 M7:M25" xr:uid="{3E3248DC-C601-4015-BAB0-1D9714E0A92A}">
-      <formula1>"text,picklist,multi-picklist,lookup,date,number"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C25 D7 D9:D25" xr:uid="{25196C70-295C-43FF-A050-7D2EA327A7B4}">
+      <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C25 D7 D9:D25 Q7" xr:uid="{25196C70-295C-43FF-A050-7D2EA327A7B4}">
-      <formula1>#REF!</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I25 M7:M25 Q7:Q25 U7:U25 Y7:Y25 I28:I38 M28:M37 M38 Q28:Q38 U28:U38 Y28:Y38" xr:uid="{27096846-8997-4EAF-9D53-667CB7619E1A}">
+      <formula1>"text,picklist,multi-picklist,lookup,date,number,boolean"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010060A44420B6B801499790497461B7617A" ma:contentTypeVersion="11" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="fabbcee23a04d27af1ae9e54f4461bef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8f774076-1ef3-4740-8929-5969f04599b3" xmlns:ns4="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c03e0335abb4116b770311e5abaeb524" ns3:_="" ns4:_="">
     <xsd:import namespace="8f774076-1ef3-4740-8929-5969f04599b3"/>
@@ -4116,6 +4168,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -4123,14 +4184,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4CDBC7-0A6E-420D-A4CD-91BDFDE80302}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4145,6 +4198,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/default-mappings-xlsx/grabber/Grabber_Mapping_Salesforce_DE.xlsx
+++ b/default-mappings-xlsx/grabber/Grabber_Mapping_Salesforce_DE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\Neue Vorlagen\Export Ready\grabber\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\grabber\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A46E6B51-1AE6-4AA9-9812-8FC008AB449C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE9CFC18-0097-4F9B-A693-32A256CDBBD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Specifications" sheetId="2" r:id="rId1"/>
@@ -182,39 +182,6 @@
     <t>Default Value</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FF9DA600"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Vorlagen-Name:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FFFE6C36"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[Hier bitte Namen der Master-Vorlage einfügen]</t>
-    </r>
-  </si>
-  <si>
     <t>Anrede</t>
   </si>
   <si>
@@ -333,13 +300,16 @@
   </si>
   <si>
     <t>SF: Additional Entity</t>
+  </si>
+  <si>
+    <t>Grabber Mapping</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -407,13 +377,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color rgb="FFFE6C36"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF9DA600"/>
@@ -1466,13 +1429,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
@@ -1492,13 +1455,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1513,10 +1476,10 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1528,36 +1491,35 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1584,6 +1546,42 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -1596,42 +1594,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -2563,9 +2526,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5027446F-BBDF-4A57-AA45-BC7D0EB64201}">
   <dimension ref="A1:Y39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2587,8 +2548,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="67" t="s">
-        <v>38</v>
+      <c r="A1" s="112" t="s">
+        <v>78</v>
       </c>
       <c r="B1" s="66"/>
       <c r="C1" s="66"/>
@@ -2618,48 +2579,48 @@
       </c>
       <c r="B4" s="23"/>
       <c r="C4" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="34" t="s">
-        <v>70</v>
-      </c>
       <c r="E4" s="35"/>
-      <c r="G4" s="100" t="s">
+      <c r="G4" s="111" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
+      <c r="H4" s="111"/>
+      <c r="I4" s="111"/>
       <c r="J4" s="5"/>
-      <c r="K4" s="100" t="s">
+      <c r="K4" s="111" t="s">
         <v>29</v>
       </c>
-      <c r="L4" s="100"/>
-      <c r="M4" s="100"/>
-      <c r="O4" s="100" t="s">
+      <c r="L4" s="111"/>
+      <c r="M4" s="111"/>
+      <c r="O4" s="111" t="s">
         <v>30</v>
       </c>
-      <c r="P4" s="100"/>
-      <c r="Q4" s="100"/>
-      <c r="S4" s="97" t="s">
+      <c r="P4" s="111"/>
+      <c r="Q4" s="111"/>
+      <c r="S4" s="108" t="s">
+        <v>76</v>
+      </c>
+      <c r="T4" s="109"/>
+      <c r="U4" s="110"/>
+      <c r="W4" s="108" t="s">
         <v>77</v>
       </c>
-      <c r="T4" s="98"/>
-      <c r="U4" s="99"/>
-      <c r="W4" s="97" t="s">
-        <v>78</v>
-      </c>
-      <c r="X4" s="98"/>
-      <c r="Y4" s="99"/>
+      <c r="X4" s="109"/>
+      <c r="Y4" s="110"/>
     </row>
     <row r="5" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="78" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="57"/>
       <c r="C6" s="58"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="96" t="s">
+      <c r="D6" s="79"/>
+      <c r="E6" s="95" t="s">
         <v>37</v>
       </c>
       <c r="G6" s="17" t="s">
@@ -2690,27 +2651,27 @@
       <c r="Q6" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="S6" s="81" t="s">
+      <c r="S6" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="T6" s="82" t="s">
+      <c r="T6" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="U6" s="83" t="s">
+      <c r="U6" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="W6" s="81" t="s">
+      <c r="W6" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="X6" s="82" t="s">
+      <c r="X6" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="Y6" s="83" t="s">
+      <c r="Y6" s="82" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="78"/>
+      <c r="A7" s="77"/>
       <c r="B7" s="24"/>
       <c r="C7" s="59"/>
       <c r="D7" s="29"/>
@@ -2725,505 +2686,505 @@
       <c r="O7" s="15"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="16"/>
-      <c r="S7" s="84" t="s">
+      <c r="S7" s="83" t="s">
         <v>31</v>
       </c>
       <c r="T7" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="U7" s="85"/>
-      <c r="W7" s="91"/>
+      <c r="U7" s="84"/>
+      <c r="W7" s="90"/>
       <c r="X7" s="4"/>
-      <c r="Y7" s="92"/>
+      <c r="Y7" s="91"/>
     </row>
     <row r="8" spans="1:25" s="45" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="68" t="s">
-        <v>39</v>
+      <c r="A8" s="67" t="s">
+        <v>38</v>
       </c>
       <c r="B8" s="47" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C8" s="60"/>
       <c r="D8" s="48"/>
       <c r="E8" s="49"/>
       <c r="G8" s="50" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H8" s="51" t="s">
         <v>3</v>
       </c>
       <c r="I8" s="52" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J8" s="53"/>
       <c r="K8" s="50" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L8" s="51" t="s">
         <v>3</v>
       </c>
       <c r="M8" s="52" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O8" s="54"/>
       <c r="P8" s="55"/>
       <c r="Q8" s="56"/>
-      <c r="S8" s="86" t="s">
+      <c r="S8" s="85" t="s">
         <v>33</v>
       </c>
       <c r="T8" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="U8" s="85"/>
-      <c r="W8" s="87"/>
+      <c r="U8" s="84"/>
+      <c r="W8" s="86"/>
       <c r="X8" s="3"/>
-      <c r="Y8" s="85"/>
+      <c r="Y8" s="84"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9" s="69" t="s">
-        <v>40</v>
+      <c r="A9" s="68" t="s">
+        <v>39</v>
       </c>
       <c r="B9" s="25"/>
       <c r="C9" s="61"/>
       <c r="D9" s="30"/>
       <c r="E9" s="40"/>
       <c r="G9" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I9" s="52" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O9" s="8"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="9"/>
-      <c r="S9" s="87"/>
+      <c r="S9" s="86"/>
       <c r="T9" s="3"/>
-      <c r="U9" s="85"/>
-      <c r="W9" s="87"/>
+      <c r="U9" s="84"/>
+      <c r="W9" s="86"/>
       <c r="X9" s="3"/>
-      <c r="Y9" s="85"/>
+      <c r="Y9" s="84"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10" s="69" t="s">
-        <v>41</v>
+      <c r="A10" s="68" t="s">
+        <v>40</v>
       </c>
       <c r="B10" s="25"/>
       <c r="C10" s="61"/>
       <c r="D10" s="30"/>
       <c r="E10" s="40"/>
       <c r="G10" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O10" s="8"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="9"/>
-      <c r="S10" s="87"/>
+      <c r="S10" s="86"/>
       <c r="T10" s="3"/>
-      <c r="U10" s="85"/>
-      <c r="W10" s="87"/>
+      <c r="U10" s="84"/>
+      <c r="W10" s="86"/>
       <c r="X10" s="3"/>
-      <c r="Y10" s="85"/>
+      <c r="Y10" s="84"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A11" s="69" t="s">
-        <v>42</v>
+      <c r="A11" s="68" t="s">
+        <v>41</v>
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="61"/>
       <c r="D11" s="30"/>
       <c r="E11" s="40"/>
       <c r="G11" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>6</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L11" s="3" t="s">
         <v>6</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O11" s="8"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="9"/>
-      <c r="S11" s="84"/>
+      <c r="S11" s="83"/>
       <c r="T11" s="51"/>
-      <c r="U11" s="88"/>
-      <c r="W11" s="87"/>
+      <c r="U11" s="87"/>
+      <c r="W11" s="86"/>
       <c r="X11" s="3"/>
-      <c r="Y11" s="85"/>
+      <c r="Y11" s="84"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A12" s="69" t="s">
-        <v>43</v>
+      <c r="A12" s="68" t="s">
+        <v>42</v>
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="61"/>
       <c r="D12" s="30"/>
       <c r="E12" s="40"/>
       <c r="G12" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>7</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="8"/>
       <c r="L12" s="3"/>
       <c r="M12" s="9"/>
       <c r="O12" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P12" s="3" t="s">
         <v>21</v>
       </c>
       <c r="Q12" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="S12" s="87"/>
+        <v>70</v>
+      </c>
+      <c r="S12" s="86"/>
       <c r="T12" s="3"/>
-      <c r="U12" s="85"/>
-      <c r="W12" s="87"/>
+      <c r="U12" s="84"/>
+      <c r="W12" s="86"/>
       <c r="X12" s="3"/>
-      <c r="Y12" s="85"/>
+      <c r="Y12" s="84"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A13" s="70" t="s">
-        <v>46</v>
+      <c r="A13" s="69" t="s">
+        <v>45</v>
       </c>
       <c r="B13" s="26"/>
       <c r="C13" s="61"/>
       <c r="D13" s="30"/>
       <c r="E13" s="40"/>
       <c r="G13" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>8</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L13" s="4" t="s">
         <v>16</v>
       </c>
       <c r="M13" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O13" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q13" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="S13" s="89"/>
+        <v>70</v>
+      </c>
+      <c r="S13" s="88"/>
       <c r="T13" s="55"/>
-      <c r="U13" s="90"/>
-      <c r="W13" s="87"/>
+      <c r="U13" s="89"/>
+      <c r="W13" s="86"/>
       <c r="X13" s="3"/>
-      <c r="Y13" s="85"/>
+      <c r="Y13" s="84"/>
     </row>
     <row r="14" spans="1:25" s="45" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="68" t="s">
-        <v>47</v>
+      <c r="A14" s="67" t="s">
+        <v>46</v>
       </c>
       <c r="B14" s="47"/>
       <c r="C14" s="60"/>
       <c r="D14" s="48"/>
       <c r="E14" s="49"/>
       <c r="G14" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>9</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J14" s="53"/>
       <c r="K14" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L14" s="55" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O14" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P14" s="55" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q14" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="S14" s="84"/>
+        <v>70</v>
+      </c>
+      <c r="S14" s="83"/>
       <c r="T14" s="51"/>
-      <c r="U14" s="88"/>
-      <c r="W14" s="89"/>
+      <c r="U14" s="87"/>
+      <c r="W14" s="88"/>
       <c r="X14" s="55"/>
-      <c r="Y14" s="90"/>
+      <c r="Y14" s="89"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A15" s="71" t="s">
-        <v>50</v>
+      <c r="A15" s="70" t="s">
+        <v>49</v>
       </c>
       <c r="B15" s="27"/>
       <c r="C15" s="61"/>
       <c r="D15" s="30"/>
       <c r="E15" s="40"/>
       <c r="G15" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H15" s="14" t="s">
         <v>10</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L15" s="14" t="s">
         <v>18</v>
       </c>
       <c r="M15" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O15" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P15" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Q15" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="S15" s="86"/>
+        <v>70</v>
+      </c>
+      <c r="S15" s="85"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="85"/>
-      <c r="W15" s="87"/>
+      <c r="U15" s="84"/>
+      <c r="W15" s="86"/>
       <c r="X15" s="3"/>
-      <c r="Y15" s="85"/>
+      <c r="Y15" s="84"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16" s="69" t="s">
-        <v>48</v>
+      <c r="A16" s="68" t="s">
+        <v>47</v>
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="61"/>
       <c r="D16" s="30"/>
       <c r="E16" s="40"/>
       <c r="G16" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L16" s="3" t="s">
         <v>19</v>
       </c>
       <c r="M16" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O16" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q16" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="S16" s="87"/>
+        <v>70</v>
+      </c>
+      <c r="S16" s="86"/>
       <c r="T16" s="3"/>
-      <c r="U16" s="85"/>
-      <c r="W16" s="87"/>
+      <c r="U16" s="84"/>
+      <c r="W16" s="86"/>
       <c r="X16" s="3"/>
-      <c r="Y16" s="85"/>
+      <c r="Y16" s="84"/>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A17" s="69" t="s">
-        <v>49</v>
+      <c r="A17" s="68" t="s">
+        <v>48</v>
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="61"/>
       <c r="D17" s="30"/>
       <c r="E17" s="40"/>
       <c r="G17" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>12</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L17" s="3" t="s">
         <v>20</v>
       </c>
       <c r="M17" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O17" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q17" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="S17" s="87"/>
+        <v>70</v>
+      </c>
+      <c r="S17" s="86"/>
       <c r="T17" s="3"/>
-      <c r="U17" s="85"/>
-      <c r="W17" s="87"/>
+      <c r="U17" s="84"/>
+      <c r="W17" s="86"/>
       <c r="X17" s="3"/>
-      <c r="Y17" s="85"/>
+      <c r="Y17" s="84"/>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A18" s="69" t="s">
-        <v>44</v>
+      <c r="A18" s="68" t="s">
+        <v>43</v>
       </c>
       <c r="B18" s="25"/>
       <c r="C18" s="61"/>
       <c r="D18" s="30"/>
       <c r="E18" s="40"/>
       <c r="G18" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>13</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L18" s="3" t="s">
         <v>13</v>
       </c>
       <c r="M18" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O18" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P18" s="3" t="s">
         <v>13</v>
       </c>
       <c r="Q18" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="S18" s="87"/>
+        <v>70</v>
+      </c>
+      <c r="S18" s="86"/>
       <c r="T18" s="3"/>
-      <c r="U18" s="85"/>
-      <c r="W18" s="87"/>
+      <c r="U18" s="84"/>
+      <c r="W18" s="86"/>
       <c r="X18" s="3"/>
-      <c r="Y18" s="85"/>
+      <c r="Y18" s="84"/>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A19" s="69" t="s">
-        <v>45</v>
+      <c r="A19" s="68" t="s">
+        <v>44</v>
       </c>
       <c r="B19" s="25"/>
       <c r="C19" s="61"/>
       <c r="D19" s="30"/>
       <c r="E19" s="40"/>
       <c r="G19" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>14</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L19" s="3" t="s">
         <v>14</v>
       </c>
       <c r="M19" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O19" s="8"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="9"/>
-      <c r="S19" s="87"/>
+      <c r="S19" s="86"/>
       <c r="T19" s="3"/>
-      <c r="U19" s="85"/>
-      <c r="W19" s="87"/>
+      <c r="U19" s="84"/>
+      <c r="W19" s="86"/>
       <c r="X19" s="3"/>
-      <c r="Y19" s="85"/>
+      <c r="Y19" s="84"/>
     </row>
     <row r="20" spans="1:25" s="45" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="68" t="s">
+      <c r="A20" s="67" t="s">
         <v>2</v>
       </c>
       <c r="B20" s="47"/>
@@ -3237,7 +3198,7 @@
         <v>2</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J20" s="53"/>
       <c r="K20" s="54" t="s">
@@ -3247,7 +3208,7 @@
         <v>2</v>
       </c>
       <c r="M20" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O20" s="54" t="s">
         <v>2</v>
@@ -3256,17 +3217,17 @@
         <v>2</v>
       </c>
       <c r="Q20" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="S20" s="89"/>
+        <v>70</v>
+      </c>
+      <c r="S20" s="88"/>
       <c r="T20" s="55"/>
-      <c r="U20" s="90"/>
-      <c r="W20" s="89"/>
+      <c r="U20" s="89"/>
+      <c r="W20" s="88"/>
       <c r="X20" s="55"/>
-      <c r="Y20" s="90"/>
+      <c r="Y20" s="89"/>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A21" s="69" t="s">
+      <c r="A21" s="68" t="s">
         <v>1</v>
       </c>
       <c r="B21" s="25"/>
@@ -3280,7 +3241,7 @@
         <v>15</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="8" t="s">
@@ -3290,20 +3251,20 @@
         <v>15</v>
       </c>
       <c r="M21" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O21" s="8"/>
       <c r="P21" s="3"/>
       <c r="Q21" s="9"/>
-      <c r="S21" s="87"/>
+      <c r="S21" s="86"/>
       <c r="T21" s="3"/>
-      <c r="U21" s="85"/>
-      <c r="W21" s="87"/>
+      <c r="U21" s="84"/>
+      <c r="W21" s="86"/>
       <c r="X21" s="3"/>
-      <c r="Y21" s="85"/>
+      <c r="Y21" s="84"/>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A22" s="70" t="s">
+      <c r="A22" s="69" t="s">
         <v>0</v>
       </c>
       <c r="B22" s="25"/>
@@ -3317,7 +3278,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="15"/>
@@ -3330,31 +3291,31 @@
         <v>0</v>
       </c>
       <c r="Q22" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="S22" s="91"/>
+        <v>70</v>
+      </c>
+      <c r="S22" s="90"/>
       <c r="T22" s="4"/>
-      <c r="U22" s="92"/>
-      <c r="W22" s="91"/>
+      <c r="U22" s="91"/>
+      <c r="W22" s="90"/>
       <c r="X22" s="4"/>
-      <c r="Y22" s="92"/>
+      <c r="Y22" s="91"/>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A23" s="70" t="s">
-        <v>59</v>
+      <c r="A23" s="69" t="s">
+        <v>58</v>
       </c>
       <c r="B23" s="25"/>
       <c r="C23" s="61"/>
       <c r="D23" s="30"/>
       <c r="E23" s="40"/>
       <c r="G23" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J23" s="1"/>
       <c r="K23" s="15"/>
@@ -3363,29 +3324,29 @@
       <c r="O23" s="15"/>
       <c r="P23" s="4"/>
       <c r="Q23" s="9"/>
-      <c r="S23" s="91"/>
+      <c r="S23" s="90"/>
       <c r="T23" s="4"/>
-      <c r="U23" s="92"/>
-      <c r="W23" s="91"/>
+      <c r="U23" s="91"/>
+      <c r="W23" s="90"/>
       <c r="X23" s="4"/>
-      <c r="Y23" s="92"/>
+      <c r="Y23" s="91"/>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A24" s="70" t="s">
-        <v>60</v>
+      <c r="A24" s="69" t="s">
+        <v>59</v>
       </c>
       <c r="B24" s="26"/>
-      <c r="C24" s="74"/>
-      <c r="D24" s="75"/>
-      <c r="E24" s="76"/>
+      <c r="C24" s="73"/>
+      <c r="D24" s="74"/>
+      <c r="E24" s="75"/>
       <c r="G24" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J24" s="1"/>
       <c r="K24" s="15"/>
@@ -3394,55 +3355,55 @@
       <c r="O24" s="15"/>
       <c r="P24" s="4"/>
       <c r="Q24" s="9"/>
-      <c r="S24" s="91"/>
+      <c r="S24" s="90"/>
       <c r="T24" s="4"/>
-      <c r="U24" s="92"/>
-      <c r="W24" s="91"/>
+      <c r="U24" s="91"/>
+      <c r="W24" s="90"/>
       <c r="X24" s="4"/>
-      <c r="Y24" s="92"/>
+      <c r="Y24" s="91"/>
     </row>
     <row r="25" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B25" s="28"/>
       <c r="C25" s="62"/>
       <c r="D25" s="31"/>
       <c r="E25" s="41"/>
       <c r="G25" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J25" s="1"/>
       <c r="K25" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L25" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M25" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O25" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P25" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q25" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="S25" s="93"/>
-      <c r="T25" s="94"/>
-      <c r="U25" s="95"/>
-      <c r="W25" s="93"/>
-      <c r="X25" s="94"/>
-      <c r="Y25" s="95"/>
+        <v>71</v>
+      </c>
+      <c r="S25" s="92"/>
+      <c r="T25" s="93"/>
+      <c r="U25" s="94"/>
+      <c r="W25" s="92"/>
+      <c r="X25" s="93"/>
+      <c r="Y25" s="94"/>
     </row>
     <row r="26" spans="1:25" ht="7.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G26" s="6"/>
@@ -3464,7 +3425,7 @@
       <c r="Y26" s="7"/>
     </row>
     <row r="27" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="77" t="s">
+      <c r="A27" s="76" t="s">
         <v>28</v>
       </c>
       <c r="B27" s="20" t="s">
@@ -3522,14 +3483,14 @@
       </c>
     </row>
     <row r="28" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="72" t="s">
+      <c r="A28" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="102" t="s">
         <v>51</v>
       </c>
-      <c r="B28" s="101" t="s">
-        <v>52</v>
-      </c>
-      <c r="C28" s="102"/>
-      <c r="D28" s="103"/>
+      <c r="C28" s="103"/>
+      <c r="D28" s="104"/>
       <c r="E28" s="36"/>
       <c r="G28" s="8"/>
       <c r="H28" s="3"/>
@@ -3548,14 +3509,14 @@
       <c r="Y28" s="9"/>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A29" s="73" t="s">
+      <c r="A29" s="72" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" s="105" t="s">
         <v>53</v>
       </c>
-      <c r="B29" s="104" t="s">
-        <v>54</v>
-      </c>
-      <c r="C29" s="105"/>
-      <c r="D29" s="106"/>
+      <c r="C29" s="106"/>
+      <c r="D29" s="107"/>
       <c r="E29" s="37"/>
       <c r="G29" s="8"/>
       <c r="H29" s="3"/>
@@ -3574,14 +3535,14 @@
       <c r="Y29" s="9"/>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A30" s="73" t="s">
+      <c r="A30" s="72" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30" s="105" t="s">
         <v>55</v>
       </c>
-      <c r="B30" s="104" t="s">
-        <v>56</v>
-      </c>
-      <c r="C30" s="105"/>
-      <c r="D30" s="106"/>
+      <c r="C30" s="106"/>
+      <c r="D30" s="107"/>
       <c r="E30" s="37"/>
       <c r="G30" s="8"/>
       <c r="H30" s="3"/>
@@ -3600,14 +3561,14 @@
       <c r="Y30" s="9"/>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A31" s="73" t="s">
+      <c r="A31" s="72" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" s="105" t="s">
         <v>57</v>
       </c>
-      <c r="B31" s="104" t="s">
-        <v>58</v>
-      </c>
-      <c r="C31" s="105"/>
-      <c r="D31" s="106"/>
+      <c r="C31" s="106"/>
+      <c r="D31" s="107"/>
       <c r="E31" s="37"/>
       <c r="G31" s="8"/>
       <c r="H31" s="3"/>
@@ -3626,10 +3587,10 @@
       <c r="Y31" s="9"/>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A32" s="73"/>
-      <c r="B32" s="104"/>
-      <c r="C32" s="105"/>
-      <c r="D32" s="106"/>
+      <c r="A32" s="72"/>
+      <c r="B32" s="105"/>
+      <c r="C32" s="106"/>
+      <c r="D32" s="107"/>
       <c r="E32" s="37"/>
       <c r="G32" s="8"/>
       <c r="H32" s="3"/>
@@ -3671,9 +3632,9 @@
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="32"/>
-      <c r="B34" s="107"/>
-      <c r="C34" s="108"/>
-      <c r="D34" s="109"/>
+      <c r="B34" s="96"/>
+      <c r="C34" s="97"/>
+      <c r="D34" s="98"/>
       <c r="E34" s="37"/>
       <c r="G34" s="8"/>
       <c r="H34" s="3"/>
@@ -3693,9 +3654,9 @@
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="32"/>
-      <c r="B35" s="107"/>
-      <c r="C35" s="108"/>
-      <c r="D35" s="109"/>
+      <c r="B35" s="96"/>
+      <c r="C35" s="97"/>
+      <c r="D35" s="98"/>
       <c r="E35" s="37"/>
       <c r="G35" s="8"/>
       <c r="H35" s="3"/>
@@ -3715,9 +3676,9 @@
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="32"/>
-      <c r="B36" s="107"/>
-      <c r="C36" s="108"/>
-      <c r="D36" s="109"/>
+      <c r="B36" s="96"/>
+      <c r="C36" s="97"/>
+      <c r="D36" s="98"/>
       <c r="E36" s="37"/>
       <c r="G36" s="8"/>
       <c r="H36" s="3"/>
@@ -3737,9 +3698,9 @@
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="32"/>
-      <c r="B37" s="107"/>
-      <c r="C37" s="108"/>
-      <c r="D37" s="109"/>
+      <c r="B37" s="96"/>
+      <c r="C37" s="97"/>
+      <c r="D37" s="98"/>
       <c r="E37" s="37"/>
       <c r="G37" s="8"/>
       <c r="H37" s="3"/>
@@ -3759,9 +3720,9 @@
     </row>
     <row r="38" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="33"/>
-      <c r="B38" s="110"/>
-      <c r="C38" s="111"/>
-      <c r="D38" s="112"/>
+      <c r="B38" s="99"/>
+      <c r="C38" s="100"/>
+      <c r="D38" s="101"/>
       <c r="E38" s="38"/>
       <c r="G38" s="10"/>
       <c r="H38" s="11"/>
@@ -3788,21 +3749,21 @@
     <protectedRange sqref="A1" name="Titel"/>
   </protectedRanges>
   <mergeCells count="15">
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="B35:D35"/>
     <mergeCell ref="B36:D36"/>
     <mergeCell ref="B37:D37"/>
     <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="O4:Q4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A26:AG26 A25:H25 B13:P24 B8:F8 J8 Q16:AG25 N8:R8 Q13:R15 V13:AG15 B9:AG12 U7:U8 V8 Z8:AG8 J25:P25">
@@ -3960,6 +3921,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010060A44420B6B801499790497461B7617A" ma:contentTypeVersion="11" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="fabbcee23a04d27af1ae9e54f4461bef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8f774076-1ef3-4740-8929-5969f04599b3" xmlns:ns4="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c03e0335abb4116b770311e5abaeb524" ns3:_="" ns4:_="">
     <xsd:import namespace="8f774076-1ef3-4740-8929-5969f04599b3"/>
@@ -4168,15 +4138,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -4184,6 +4145,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4CDBC7-0A6E-420D-A4CD-91BDFDE80302}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4198,14 +4167,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/default-mappings-xlsx/grabber/Grabber_Mapping_Salesforce_DE.xlsx
+++ b/default-mappings-xlsx/grabber/Grabber_Mapping_Salesforce_DE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\Neue Vorlagen\Grabber\Salesforce\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\grabber\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E54C8E01-71CE-4E61-AF3B-42A23F49C946}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{734904D7-1D80-4AE0-A444-4316F58E5FCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Specifications" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="field_type">Specifications!$I$8:$I$25,Specifications!$M$8:$M$25,Specifications!$Q$8:$Q$25,Specifications!$Y$8:$Y$25,Specifications!$U$8:$U$25,Specifications!$U$28:$U$38,Specifications!$Y$28:$Y$38,Specifications!$Q$28:$Q$38,Specifications!$M$28:$M$38,Specifications!$I$28:$I$38</definedName>
+    <definedName name="field_type">Specifications!$I$7:$I$24,Specifications!$M$7:$M$24,Specifications!$Q$7:$Q$24,Specifications!$Y$7:$Y$24,Specifications!$U$7:$U$24,Specifications!$U$27:$U$37,Specifications!$Y$27:$Y$37,Specifications!$Q$27:$Q$37,Specifications!$M$27:$M$37,Specifications!$I$27:$I$37</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="78">
   <si>
     <t>Website</t>
   </si>
@@ -145,39 +145,6 @@
   </si>
   <si>
     <t>SF: Custom Entity (optional)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FF9DA600"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Vorlagen-Name:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FFFE6C36"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[Hier bitte Namen der Master-Vorlage einfügen]</t>
-    </r>
   </si>
   <si>
     <t>Anrede</t>
@@ -301,7 +268,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -347,13 +314,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFE6C36"/>
       <name val="Calibri"/>
@@ -364,13 +324,6 @@
       <b/>
       <sz val="16"/>
       <color rgb="FF9DA600"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color rgb="FFFE6C36"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1372,7 +1325,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1397,7 +1350,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -1406,13 +1359,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
@@ -1423,40 +1376,40 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1468,36 +1421,34 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1524,42 +1475,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -1571,6 +1486,42 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2056,13 +2007,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>771525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2134,13 +2085,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>973015</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>105510</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>4396</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2501,10 +2452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5027446F-BBDF-4A57-AA45-BC7D0EB64201}">
-  <dimension ref="A1:Y39"/>
+  <dimension ref="A1:Y38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:XFD32"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -2526,201 +2477,227 @@
     <col min="23" max="25" width="15" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="67" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
+    <row r="1" spans="1:25" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:25" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+    <row r="2" spans="1:25" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G2" s="46"/>
+      <c r="K2" s="46"/>
     </row>
-    <row r="3" spans="1:25" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G3" s="46"/>
-      <c r="K3" s="46"/>
+    <row r="3" spans="1:25" ht="80.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="23"/>
+      <c r="C3" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="35"/>
+      <c r="G3" s="98" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="98"/>
+      <c r="I3" s="98"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="98" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="98"/>
+      <c r="M3" s="98"/>
+      <c r="O3" s="98" t="s">
+        <v>30</v>
+      </c>
+      <c r="P3" s="98"/>
+      <c r="Q3" s="98"/>
+      <c r="S3" s="95" t="s">
+        <v>38</v>
+      </c>
+      <c r="T3" s="96"/>
+      <c r="U3" s="97"/>
+      <c r="W3" s="95" t="s">
+        <v>70</v>
+      </c>
+      <c r="X3" s="96"/>
+      <c r="Y3" s="97"/>
     </row>
-    <row r="4" spans="1:25" ht="80.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="D4" s="34" t="s">
+    <row r="4" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="77" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="57"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="79" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="O5" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="P5" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q5" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="S5" s="80" t="s">
+        <v>22</v>
+      </c>
+      <c r="T5" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="U5" s="82" t="s">
+        <v>23</v>
+      </c>
+      <c r="W5" s="80" t="s">
+        <v>22</v>
+      </c>
+      <c r="X5" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y5" s="82" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="76"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="39"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="9"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="16"/>
+      <c r="S6" s="83" t="s">
+        <v>31</v>
+      </c>
+      <c r="T6" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="U6" s="84"/>
+      <c r="W6" s="90"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="91"/>
+    </row>
+    <row r="7" spans="1:25" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="66" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="60"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="49"/>
+      <c r="G7" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="J7" s="53"/>
+      <c r="K7" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="L7" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="O7" s="54"/>
+      <c r="P7" s="55"/>
+      <c r="Q7" s="56"/>
+      <c r="S7" s="85" t="s">
+        <v>33</v>
+      </c>
+      <c r="T7" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="U7" s="84"/>
+      <c r="W7" s="86"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="84"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A8" s="67" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="25"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="40"/>
+      <c r="G8" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="E4" s="35"/>
-      <c r="G4" s="112" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="112"/>
-      <c r="I4" s="112"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="112" t="s">
-        <v>29</v>
-      </c>
-      <c r="L4" s="112"/>
-      <c r="M4" s="112"/>
-      <c r="O4" s="112" t="s">
-        <v>30</v>
-      </c>
-      <c r="P4" s="112"/>
-      <c r="Q4" s="112"/>
-      <c r="S4" s="109" t="s">
-        <v>38</v>
-      </c>
-      <c r="T4" s="110"/>
-      <c r="U4" s="111"/>
-      <c r="W4" s="109" t="s">
-        <v>71</v>
-      </c>
-      <c r="X4" s="110"/>
-      <c r="Y4" s="111"/>
-    </row>
-    <row r="5" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="79" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="57"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="81" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6" s="1"/>
-      <c r="K6" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="L6" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="M6" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="O6" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="P6" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q6" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="S6" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="T6" s="83" t="s">
-        <v>25</v>
-      </c>
-      <c r="U6" s="84" t="s">
-        <v>23</v>
-      </c>
-      <c r="W6" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="X6" s="83" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y6" s="84" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="78"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="39"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="9"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="16"/>
-      <c r="S7" s="85" t="s">
-        <v>31</v>
-      </c>
-      <c r="T7" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="U7" s="86"/>
-      <c r="W7" s="92"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="93"/>
-    </row>
-    <row r="8" spans="1:25" s="45" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="68" t="s">
+      <c r="J8" s="1"/>
+      <c r="K8" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="C8" s="60"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="49"/>
-      <c r="G8" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="H8" s="51" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8" s="52" t="s">
-        <v>75</v>
-      </c>
-      <c r="J8" s="53"/>
-      <c r="K8" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="L8" s="51" t="s">
-        <v>3</v>
-      </c>
-      <c r="M8" s="52" t="s">
-        <v>75</v>
-      </c>
-      <c r="O8" s="54"/>
-      <c r="P8" s="55"/>
-      <c r="Q8" s="56"/>
-      <c r="S8" s="87" t="s">
-        <v>33</v>
-      </c>
-      <c r="T8" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="U8" s="86"/>
-      <c r="W8" s="88"/>
+      <c r="L8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="O8" s="8"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="9"/>
+      <c r="S8" s="86"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="84"/>
+      <c r="W8" s="86"/>
       <c r="X8" s="3"/>
-      <c r="Y8" s="86"/>
+      <c r="Y8" s="84"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9" s="69" t="s">
+      <c r="A9" s="67" t="s">
         <v>41</v>
       </c>
       <c r="B9" s="25"/>
@@ -2731,33 +2708,33 @@
         <v>41</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I9" s="52" t="s">
-        <v>73</v>
+        <v>5</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>72</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="8" t="s">
         <v>41</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O9" s="8"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="9"/>
-      <c r="S9" s="88"/>
+      <c r="S9" s="86"/>
       <c r="T9" s="3"/>
-      <c r="U9" s="86"/>
-      <c r="W9" s="88"/>
+      <c r="U9" s="84"/>
+      <c r="W9" s="86"/>
       <c r="X9" s="3"/>
-      <c r="Y9" s="86"/>
+      <c r="Y9" s="84"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10" s="69" t="s">
+      <c r="A10" s="67" t="s">
         <v>42</v>
       </c>
       <c r="B10" s="25"/>
@@ -2768,33 +2745,33 @@
         <v>42</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="8" t="s">
         <v>42</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O10" s="8"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="9"/>
-      <c r="S10" s="88"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="86"/>
-      <c r="W10" s="88"/>
+      <c r="S10" s="83"/>
+      <c r="T10" s="51"/>
+      <c r="U10" s="87"/>
+      <c r="W10" s="86"/>
       <c r="X10" s="3"/>
-      <c r="Y10" s="86"/>
+      <c r="Y10" s="84"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A11" s="69" t="s">
+      <c r="A11" s="67" t="s">
         <v>43</v>
       </c>
       <c r="B11" s="25"/>
@@ -2805,199 +2782,205 @@
         <v>43</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J11" s="1"/>
-      <c r="K11" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="M11" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="O11" s="8"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="9"/>
-      <c r="S11" s="85"/>
-      <c r="T11" s="51"/>
-      <c r="U11" s="89"/>
-      <c r="W11" s="88"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="9"/>
+      <c r="O11" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q11" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="S11" s="86"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="84"/>
+      <c r="W11" s="86"/>
       <c r="X11" s="3"/>
-      <c r="Y11" s="86"/>
+      <c r="Y11" s="84"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A12" s="69" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" s="25"/>
+      <c r="A12" s="68" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="26"/>
       <c r="C12" s="61"/>
       <c r="D12" s="30"/>
       <c r="E12" s="40"/>
-      <c r="G12" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>7</v>
+      <c r="G12" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J12" s="1"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="9"/>
-      <c r="O12" s="8" t="s">
+      <c r="K12" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M12" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="O12" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="P12" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="Q12" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="S12" s="88"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="86"/>
-      <c r="W12" s="88"/>
+      <c r="T12" s="55"/>
+      <c r="U12" s="89"/>
+      <c r="W12" s="86"/>
       <c r="X12" s="3"/>
-      <c r="Y12" s="86"/>
+      <c r="Y12" s="84"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A13" s="70" t="s">
+    <row r="13" spans="1:25" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="26"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="40"/>
-      <c r="G13" s="15" t="s">
+      <c r="B13" s="47"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="49"/>
+      <c r="G13" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="H13" s="4" t="s">
-        <v>8</v>
+      <c r="H13" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="J13" s="1"/>
-      <c r="K13" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="J13" s="53"/>
+      <c r="K13" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="L13" s="4" t="s">
-        <v>16</v>
+      <c r="L13" s="55" t="s">
+        <v>17</v>
       </c>
       <c r="M13" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="O13" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="O13" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="P13" s="4" t="s">
+      <c r="P13" s="55" t="s">
         <v>64</v>
       </c>
       <c r="Q13" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="S13" s="90"/>
-      <c r="T13" s="55"/>
-      <c r="U13" s="91"/>
+        <v>72</v>
+      </c>
+      <c r="S13" s="83"/>
+      <c r="T13" s="51"/>
+      <c r="U13" s="87"/>
       <c r="W13" s="88"/>
-      <c r="X13" s="3"/>
-      <c r="Y13" s="86"/>
+      <c r="X13" s="55"/>
+      <c r="Y13" s="89"/>
     </row>
-    <row r="14" spans="1:25" s="45" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="68" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="47"/>
-      <c r="C14" s="60"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="49"/>
-      <c r="G14" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>9</v>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A14" s="69" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="27"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="40"/>
+      <c r="G14" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>10</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="J14" s="53"/>
-      <c r="K14" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="L14" s="55" t="s">
-        <v>17</v>
+        <v>72</v>
+      </c>
+      <c r="J14" s="1"/>
+      <c r="K14" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="L14" s="14" t="s">
+        <v>18</v>
       </c>
       <c r="M14" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="O14" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="P14" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="O14" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="P14" s="14" t="s">
         <v>65</v>
       </c>
       <c r="Q14" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="S14" s="85"/>
-      <c r="T14" s="51"/>
-      <c r="U14" s="89"/>
-      <c r="W14" s="90"/>
-      <c r="X14" s="55"/>
-      <c r="Y14" s="91"/>
+      <c r="T14" s="14"/>
+      <c r="U14" s="84"/>
+      <c r="W14" s="86"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="84"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A15" s="71" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" s="27"/>
+      <c r="A15" s="67" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="25"/>
       <c r="C15" s="61"/>
       <c r="D15" s="30"/>
       <c r="E15" s="40"/>
-      <c r="G15" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="H15" s="14" t="s">
-        <v>10</v>
+      <c r="G15" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J15" s="1"/>
-      <c r="K15" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="L15" s="14" t="s">
-        <v>18</v>
+      <c r="K15" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="M15" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="O15" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="P15" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="O15" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="P15" s="3" t="s">
         <v>66</v>
       </c>
       <c r="Q15" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="S15" s="87"/>
-      <c r="T15" s="14"/>
-      <c r="U15" s="86"/>
-      <c r="W15" s="88"/>
+        <v>72</v>
+      </c>
+      <c r="S15" s="86"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="84"/>
+      <c r="W15" s="86"/>
       <c r="X15" s="3"/>
-      <c r="Y15" s="86"/>
+      <c r="Y15" s="84"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16" s="69" t="s">
+      <c r="A16" s="67" t="s">
         <v>49</v>
       </c>
       <c r="B16" s="25"/>
@@ -3008,20 +2991,20 @@
         <v>49</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="8" t="s">
         <v>49</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M16" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O16" s="8" t="s">
         <v>49</v>
@@ -3030,60 +3013,60 @@
         <v>67</v>
       </c>
       <c r="Q16" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="S16" s="88"/>
+        <v>72</v>
+      </c>
+      <c r="S16" s="86"/>
       <c r="T16" s="3"/>
-      <c r="U16" s="86"/>
-      <c r="W16" s="88"/>
+      <c r="U16" s="84"/>
+      <c r="W16" s="86"/>
       <c r="X16" s="3"/>
-      <c r="Y16" s="86"/>
+      <c r="Y16" s="84"/>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A17" s="69" t="s">
-        <v>50</v>
+      <c r="A17" s="67" t="s">
+        <v>44</v>
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="61"/>
       <c r="D17" s="30"/>
       <c r="E17" s="40"/>
       <c r="G17" s="8" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="8" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M17" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O17" s="8" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="Q17" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="S17" s="88"/>
+        <v>72</v>
+      </c>
+      <c r="S17" s="86"/>
       <c r="T17" s="3"/>
-      <c r="U17" s="86"/>
-      <c r="W17" s="88"/>
+      <c r="U17" s="84"/>
+      <c r="W17" s="86"/>
       <c r="X17" s="3"/>
-      <c r="Y17" s="86"/>
+      <c r="Y17" s="84"/>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A18" s="69" t="s">
+      <c r="A18" s="67" t="s">
         <v>45</v>
       </c>
       <c r="B18" s="25"/>
@@ -3094,207 +3077,195 @@
         <v>45</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="8" t="s">
         <v>45</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M18" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="O18" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q18" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="S18" s="88"/>
+        <v>72</v>
+      </c>
+      <c r="O18" s="8"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="9"/>
+      <c r="S18" s="86"/>
       <c r="T18" s="3"/>
-      <c r="U18" s="86"/>
-      <c r="W18" s="88"/>
+      <c r="U18" s="84"/>
+      <c r="W18" s="86"/>
       <c r="X18" s="3"/>
-      <c r="Y18" s="86"/>
+      <c r="Y18" s="84"/>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A19" s="69" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" s="25"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="40"/>
-      <c r="G19" s="8" t="s">
-        <v>46</v>
+    <row r="19" spans="1:25" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="66" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="47"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="49"/>
+      <c r="G19" s="54" t="s">
+        <v>2</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="J19" s="1"/>
-      <c r="K19" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>14</v>
+        <v>72</v>
+      </c>
+      <c r="J19" s="53"/>
+      <c r="K19" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="L19" s="55" t="s">
+        <v>2</v>
       </c>
       <c r="M19" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="O19" s="8"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="9"/>
+        <v>72</v>
+      </c>
+      <c r="O19" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="P19" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q19" s="9" t="s">
+        <v>72</v>
+      </c>
       <c r="S19" s="88"/>
-      <c r="T19" s="3"/>
-      <c r="U19" s="86"/>
+      <c r="T19" s="55"/>
+      <c r="U19" s="89"/>
       <c r="W19" s="88"/>
-      <c r="X19" s="3"/>
-      <c r="Y19" s="86"/>
+      <c r="X19" s="55"/>
+      <c r="Y19" s="89"/>
     </row>
-    <row r="20" spans="1:25" s="45" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="68" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" s="47"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="49"/>
-      <c r="G20" s="54" t="s">
-        <v>2</v>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A20" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="25"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="40"/>
+      <c r="G20" s="8" t="s">
+        <v>1</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="J20" s="53"/>
-      <c r="K20" s="54" t="s">
-        <v>2</v>
-      </c>
-      <c r="L20" s="55" t="s">
-        <v>2</v>
+        <v>72</v>
+      </c>
+      <c r="J20" s="1"/>
+      <c r="K20" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="M20" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="O20" s="54" t="s">
-        <v>2</v>
-      </c>
-      <c r="P20" s="55" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q20" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="S20" s="90"/>
-      <c r="T20" s="55"/>
-      <c r="U20" s="91"/>
-      <c r="W20" s="90"/>
-      <c r="X20" s="55"/>
-      <c r="Y20" s="91"/>
+        <v>72</v>
+      </c>
+      <c r="O20" s="8"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="9"/>
+      <c r="S20" s="86"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="84"/>
+      <c r="W20" s="86"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="84"/>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A21" s="69" t="s">
-        <v>1</v>
+      <c r="A21" s="68" t="s">
+        <v>0</v>
       </c>
       <c r="B21" s="25"/>
       <c r="C21" s="61"/>
       <c r="D21" s="30"/>
       <c r="E21" s="40"/>
-      <c r="G21" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>15</v>
+      <c r="G21" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>0</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J21" s="1"/>
-      <c r="K21" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M21" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="O21" s="8"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="9"/>
-      <c r="S21" s="88"/>
-      <c r="T21" s="3"/>
-      <c r="U21" s="86"/>
-      <c r="W21" s="88"/>
-      <c r="X21" s="3"/>
-      <c r="Y21" s="86"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="16"/>
+      <c r="O21" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="P21" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="S21" s="90"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="91"/>
+      <c r="W21" s="90"/>
+      <c r="X21" s="4"/>
+      <c r="Y21" s="91"/>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A22" s="70" t="s">
-        <v>0</v>
+      <c r="A22" s="68" t="s">
+        <v>59</v>
       </c>
       <c r="B22" s="25"/>
       <c r="C22" s="61"/>
       <c r="D22" s="30"/>
       <c r="E22" s="40"/>
       <c r="G22" s="15" t="s">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="15"/>
       <c r="L22" s="4"/>
       <c r="M22" s="16"/>
-      <c r="O22" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="P22" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="S22" s="92"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="9"/>
+      <c r="S22" s="90"/>
       <c r="T22" s="4"/>
-      <c r="U22" s="93"/>
-      <c r="W22" s="92"/>
+      <c r="U22" s="91"/>
+      <c r="W22" s="90"/>
       <c r="X22" s="4"/>
-      <c r="Y22" s="93"/>
+      <c r="Y22" s="91"/>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A23" s="70" t="s">
+      <c r="A23" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="61"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="40"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="72"/>
+      <c r="D23" s="73"/>
+      <c r="E23" s="74"/>
       <c r="G23" s="15" t="s">
         <v>60</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J23" s="1"/>
       <c r="K23" s="15"/>
@@ -3303,174 +3274,169 @@
       <c r="O23" s="15"/>
       <c r="P23" s="4"/>
       <c r="Q23" s="9"/>
-      <c r="S23" s="92"/>
+      <c r="S23" s="90"/>
       <c r="T23" s="4"/>
-      <c r="U23" s="93"/>
-      <c r="W23" s="92"/>
+      <c r="U23" s="91"/>
+      <c r="W23" s="90"/>
       <c r="X23" s="4"/>
-      <c r="Y23" s="93"/>
+      <c r="Y23" s="91"/>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A24" s="70" t="s">
+    <row r="24" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="B24" s="26"/>
-      <c r="C24" s="74"/>
-      <c r="D24" s="75"/>
-      <c r="E24" s="76"/>
-      <c r="G24" s="15" t="s">
+      <c r="B24" s="28"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="41"/>
+      <c r="G24" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="H24" s="4" t="s">
+      <c r="H24" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="I24" s="9" t="s">
+      <c r="I24" s="12" t="s">
         <v>73</v>
       </c>
       <c r="J24" s="1"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="16"/>
-      <c r="O24" s="15"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="9"/>
+      <c r="K24" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="L24" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="M24" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="O24" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="P24" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q24" s="12" t="s">
+        <v>73</v>
+      </c>
       <c r="S24" s="92"/>
-      <c r="T24" s="4"/>
-      <c r="U24" s="93"/>
+      <c r="T24" s="93"/>
+      <c r="U24" s="94"/>
       <c r="W24" s="92"/>
-      <c r="X24" s="4"/>
-      <c r="Y24" s="93"/>
+      <c r="X24" s="93"/>
+      <c r="Y24" s="94"/>
     </row>
-    <row r="25" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="B25" s="28"/>
-      <c r="C25" s="62"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="41"/>
-      <c r="G25" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="H25" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="I25" s="12" t="s">
-        <v>74</v>
-      </c>
+    <row r="25" spans="1:25" ht="7.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G25" s="6"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="7"/>
       <c r="J25" s="1"/>
-      <c r="K25" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="L25" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="M25" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="O25" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="P25" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q25" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="S25" s="94"/>
-      <c r="T25" s="95"/>
-      <c r="U25" s="96"/>
-      <c r="W25" s="94"/>
-      <c r="X25" s="95"/>
-      <c r="Y25" s="96"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="7"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="7"/>
+      <c r="S25" s="63"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="64"/>
+      <c r="V25" s="65"/>
+      <c r="W25" s="63"/>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="7"/>
     </row>
-    <row r="26" spans="1:25" ht="7.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G26" s="6"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="7"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="7"/>
-      <c r="S26" s="63"/>
-      <c r="T26" s="2"/>
-      <c r="U26" s="64"/>
-      <c r="V26" s="65"/>
-      <c r="W26" s="63"/>
-      <c r="X26" s="1"/>
-      <c r="Y26" s="7"/>
+    <row r="26" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="75" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="H26" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="I26" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="K26" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="L26" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="M26" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="O26" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="P26" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q26" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="S26" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="T26" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="U26" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="W26" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="X26" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y26" s="19" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="27" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="77" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="G27" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="H27" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="I27" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="K27" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="L27" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="M27" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="O27" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="P27" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q27" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="S27" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="T27" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="U27" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="W27" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="X27" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y27" s="19" t="s">
-        <v>23</v>
-      </c>
+    <row r="27" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="70" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="99" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="100"/>
+      <c r="D27" s="101"/>
+      <c r="E27" s="36"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="9"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="9"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="9"/>
+      <c r="S27" s="8"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="9"/>
+      <c r="W27" s="8"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="9"/>
     </row>
-    <row r="28" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="72" t="s">
-        <v>52</v>
-      </c>
-      <c r="B28" s="103" t="s">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A28" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="104"/>
-      <c r="D28" s="105"/>
-      <c r="E28" s="36"/>
+      <c r="B28" s="102" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="103"/>
+      <c r="D28" s="104"/>
+      <c r="E28" s="37"/>
       <c r="G28" s="8"/>
       <c r="H28" s="3"/>
       <c r="I28" s="9"/>
@@ -3488,14 +3454,14 @@
       <c r="Y28" s="9"/>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A29" s="73" t="s">
-        <v>54</v>
-      </c>
-      <c r="B29" s="106" t="s">
+      <c r="A29" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="107"/>
-      <c r="D29" s="108"/>
+      <c r="B29" s="102" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="103"/>
+      <c r="D29" s="104"/>
       <c r="E29" s="37"/>
       <c r="G29" s="8"/>
       <c r="H29" s="3"/>
@@ -3514,14 +3480,14 @@
       <c r="Y29" s="9"/>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A30" s="73" t="s">
-        <v>56</v>
-      </c>
-      <c r="B30" s="106" t="s">
+      <c r="A30" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="107"/>
-      <c r="D30" s="108"/>
+      <c r="B30" s="102" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="103"/>
+      <c r="D30" s="104"/>
       <c r="E30" s="37"/>
       <c r="G30" s="8"/>
       <c r="H30" s="3"/>
@@ -3540,14 +3506,10 @@
       <c r="Y30" s="9"/>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A31" s="73" t="s">
-        <v>58</v>
-      </c>
-      <c r="B31" s="106" t="s">
-        <v>59</v>
-      </c>
-      <c r="C31" s="107"/>
-      <c r="D31" s="108"/>
+      <c r="A31" s="71"/>
+      <c r="B31" s="102"/>
+      <c r="C31" s="103"/>
+      <c r="D31" s="104"/>
       <c r="E31" s="37"/>
       <c r="G31" s="8"/>
       <c r="H31" s="3"/>
@@ -3566,10 +3528,10 @@
       <c r="Y31" s="9"/>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A32" s="73"/>
-      <c r="B32" s="106"/>
-      <c r="C32" s="107"/>
-      <c r="D32" s="108"/>
+      <c r="A32" s="32"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="44"/>
       <c r="E32" s="37"/>
       <c r="G32" s="8"/>
       <c r="H32" s="3"/>
@@ -3589,9 +3551,9 @@
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="32"/>
-      <c r="B33" s="42"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="44"/>
+      <c r="B33" s="105"/>
+      <c r="C33" s="106"/>
+      <c r="D33" s="107"/>
       <c r="E33" s="37"/>
       <c r="G33" s="8"/>
       <c r="H33" s="3"/>
@@ -3611,9 +3573,9 @@
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="32"/>
-      <c r="B34" s="97"/>
-      <c r="C34" s="98"/>
-      <c r="D34" s="99"/>
+      <c r="B34" s="105"/>
+      <c r="C34" s="106"/>
+      <c r="D34" s="107"/>
       <c r="E34" s="37"/>
       <c r="G34" s="8"/>
       <c r="H34" s="3"/>
@@ -3633,9 +3595,9 @@
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="32"/>
-      <c r="B35" s="97"/>
-      <c r="C35" s="98"/>
-      <c r="D35" s="99"/>
+      <c r="B35" s="105"/>
+      <c r="C35" s="106"/>
+      <c r="D35" s="107"/>
       <c r="E35" s="37"/>
       <c r="G35" s="8"/>
       <c r="H35" s="3"/>
@@ -3655,9 +3617,9 @@
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="32"/>
-      <c r="B36" s="97"/>
-      <c r="C36" s="98"/>
-      <c r="D36" s="99"/>
+      <c r="B36" s="105"/>
+      <c r="C36" s="106"/>
+      <c r="D36" s="107"/>
       <c r="E36" s="37"/>
       <c r="G36" s="8"/>
       <c r="H36" s="3"/>
@@ -3675,221 +3637,201 @@
       <c r="X36" s="3"/>
       <c r="Y36" s="9"/>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A37" s="32"/>
-      <c r="B37" s="97"/>
-      <c r="C37" s="98"/>
-      <c r="D37" s="99"/>
-      <c r="E37" s="37"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="9"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="9"/>
-      <c r="O37" s="8"/>
-      <c r="P37" s="3"/>
-      <c r="Q37" s="9"/>
-      <c r="S37" s="8"/>
-      <c r="T37" s="3"/>
-      <c r="U37" s="9"/>
-      <c r="W37" s="8"/>
-      <c r="X37" s="3"/>
-      <c r="Y37" s="9"/>
+    <row r="37" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="33"/>
+      <c r="B37" s="108"/>
+      <c r="C37" s="109"/>
+      <c r="D37" s="110"/>
+      <c r="E37" s="38"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="12"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="12"/>
+      <c r="O37" s="10"/>
+      <c r="P37" s="11"/>
+      <c r="Q37" s="12"/>
+      <c r="S37" s="10"/>
+      <c r="T37" s="11"/>
+      <c r="U37" s="12"/>
+      <c r="W37" s="10"/>
+      <c r="X37" s="11"/>
+      <c r="Y37" s="12"/>
     </row>
-    <row r="38" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="33"/>
-      <c r="B38" s="100"/>
-      <c r="C38" s="101"/>
-      <c r="D38" s="102"/>
-      <c r="E38" s="38"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="12"/>
-      <c r="K38" s="10"/>
-      <c r="L38" s="11"/>
-      <c r="M38" s="12"/>
-      <c r="O38" s="10"/>
-      <c r="P38" s="11"/>
-      <c r="Q38" s="12"/>
-      <c r="S38" s="10"/>
-      <c r="T38" s="11"/>
-      <c r="U38" s="12"/>
-      <c r="W38" s="10"/>
-      <c r="X38" s="11"/>
-      <c r="Y38" s="12"/>
-    </row>
-    <row r="39" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection insertColumns="0" insertRows="0"/>
   <protectedRanges>
-    <protectedRange sqref="A25:H25 A13:P24 Q13:X25 A12:X12 V11:X11 A11:T11 A9:X10 A8:Y8 A7:X7 J25:P25" name="Contact Fields"/>
-    <protectedRange sqref="A28:Y38 I25" name="Questionnaire"/>
-    <protectedRange sqref="A1" name="Titel"/>
+    <protectedRange sqref="A24:H24 A12:P23 Q12:X24 A11:X11 V10:X10 A10:T10 A8:X9 A7:Y7 A6:X6 J24:P24" name="Contact Fields"/>
+    <protectedRange sqref="A27:Y37 I24" name="Questionnaire"/>
   </protectedRanges>
   <mergeCells count="15">
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B27:D27"/>
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="B30:D30"/>
     <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="S3:U3"/>
+    <mergeCell ref="W3:Y3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="O3:Q3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A26:AG26 A25:H25 B13:P24 B8:F8 J8 Q16:AG25 N8:R8 Q13:R15 V13:AG15 B9:AG12 U7:U8 V8 Z8:AG8 J25:P25">
+  <conditionalFormatting sqref="A25:AG25 A24:H24 B12:P23 B7:F7 J7 Q15:AG24 N7:R7 Q12:R14 V12:AG14 B8:AG11 U6:U7 V7 Z7:AG7 J24:P24">
     <cfRule type="expression" dxfId="33" priority="47">
+      <formula>$C6="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="48">
+      <formula>$D6="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W27:Y37">
+    <cfRule type="expression" dxfId="31" priority="45">
+      <formula>$C27="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="46">
+      <formula>$D27="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S27:U37">
+    <cfRule type="expression" dxfId="29" priority="43">
+      <formula>$C27="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="44">
+      <formula>$D27="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O27:Q37">
+    <cfRule type="expression" dxfId="27" priority="41">
+      <formula>$C27="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="42">
+      <formula>$D27="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K27:M37">
+    <cfRule type="expression" dxfId="25" priority="39">
+      <formula>$C27="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="40">
+      <formula>$D27="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G27:I37">
+    <cfRule type="expression" dxfId="23" priority="37">
+      <formula>$C27="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="38">
+      <formula>$D27="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7:A23">
+    <cfRule type="expression" dxfId="21" priority="35">
       <formula>$C7="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="48">
+    <cfRule type="expression" dxfId="20" priority="36">
       <formula>$D7="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W28:Y38">
-    <cfRule type="expression" dxfId="31" priority="45">
-      <formula>$C28="x"</formula>
+  <conditionalFormatting sqref="I24">
+    <cfRule type="expression" dxfId="19" priority="29">
+      <formula>$C24="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="46">
-      <formula>$D28="x"</formula>
+    <cfRule type="expression" dxfId="18" priority="30">
+      <formula>$D24="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S28:U38">
-    <cfRule type="expression" dxfId="29" priority="43">
-      <formula>$C28="x"</formula>
+  <conditionalFormatting sqref="G6:I7">
+    <cfRule type="expression" dxfId="17" priority="27">
+      <formula>$C6="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="44">
-      <formula>$D28="x"</formula>
+    <cfRule type="expression" dxfId="16" priority="28">
+      <formula>$D6="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O28:Q38">
-    <cfRule type="expression" dxfId="27" priority="41">
-      <formula>$C28="x"</formula>
+  <conditionalFormatting sqref="G7:I7">
+    <cfRule type="expression" dxfId="15" priority="51">
+      <formula>$C12="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="42">
-      <formula>$D28="x"</formula>
+    <cfRule type="expression" dxfId="14" priority="52">
+      <formula>$D12="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K28:M38">
-    <cfRule type="expression" dxfId="25" priority="39">
-      <formula>$C28="x"</formula>
+  <conditionalFormatting sqref="S12:U12">
+    <cfRule type="expression" dxfId="13" priority="21">
+      <formula>$C12="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="40">
-      <formula>$D28="x"</formula>
+    <cfRule type="expression" dxfId="12" priority="22">
+      <formula>$D12="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G28:I38">
-    <cfRule type="expression" dxfId="23" priority="37">
-      <formula>$C28="x"</formula>
+  <conditionalFormatting sqref="S13:U14">
+    <cfRule type="expression" dxfId="11" priority="13">
+      <formula>$C13="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="38">
-      <formula>$D28="x"</formula>
+    <cfRule type="expression" dxfId="10" priority="14">
+      <formula>$D13="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A8:A24">
-    <cfRule type="expression" dxfId="21" priority="35">
-      <formula>$C8="x"</formula>
+  <conditionalFormatting sqref="S6:T7">
+    <cfRule type="expression" dxfId="9" priority="11">
+      <formula>$C6="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="36">
-      <formula>$D8="x"</formula>
+    <cfRule type="expression" dxfId="8" priority="12">
+      <formula>$D6="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I25">
-    <cfRule type="expression" dxfId="19" priority="29">
-      <formula>$C25="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="30">
-      <formula>$D25="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G7:I8">
-    <cfRule type="expression" dxfId="17" priority="27">
+  <conditionalFormatting sqref="W7:Y7">
+    <cfRule type="expression" dxfId="7" priority="7">
       <formula>$C7="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="28">
+    <cfRule type="expression" dxfId="6" priority="8">
       <formula>$D7="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G8:I8">
-    <cfRule type="expression" dxfId="15" priority="51">
-      <formula>$C13="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="52">
-      <formula>$D13="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S13:U13">
-    <cfRule type="expression" dxfId="13" priority="21">
-      <formula>$C13="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="22">
-      <formula>$D13="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S14:U15">
-    <cfRule type="expression" dxfId="11" priority="13">
-      <formula>$C14="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="14">
-      <formula>$D14="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S7:T8">
-    <cfRule type="expression" dxfId="9" priority="11">
+  <conditionalFormatting sqref="K7:M7">
+    <cfRule type="expression" dxfId="5" priority="3">
       <formula>$C7="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="12">
+    <cfRule type="expression" dxfId="4" priority="4">
       <formula>$D7="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W8:Y8">
-    <cfRule type="expression" dxfId="7" priority="7">
-      <formula>$C8="x"</formula>
+  <conditionalFormatting sqref="K7:M7">
+    <cfRule type="expression" dxfId="3" priority="5">
+      <formula>$C12="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="8">
-      <formula>$D8="x"</formula>
+    <cfRule type="expression" dxfId="2" priority="6">
+      <formula>$D12="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:M8">
-    <cfRule type="expression" dxfId="5" priority="3">
-      <formula>$C8="x"</formula>
+  <conditionalFormatting sqref="K6:M6">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>$C6="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="4">
-      <formula>$D8="x"</formula>
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>$D6="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:M8">
-    <cfRule type="expression" dxfId="3" priority="5">
-      <formula>$C13="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="6">
-      <formula>$D13="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K7:M7">
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>$C7="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
-      <formula>$D7="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8" xr:uid="{800895DA-5639-438C-B977-CBBACBEDFF96}">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7" xr:uid="{800895DA-5639-438C-B977-CBBACBEDFF96}">
       <formula1>"x"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I28:I38 U7:U25 Q8:Q25 U28:U38 Y28:Y38 Q28:Q38 M28:M38 I7:I25 Y8:Y25 M7:M25" xr:uid="{3E3248DC-C601-4015-BAB0-1D9714E0A92A}">
-      <formula1>"text,picklist,multi-picklist,lookup,date,number"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:C24 D6 D8:D24" xr:uid="{25196C70-295C-43FF-A050-7D2EA327A7B4}">
+      <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C25 D7 D9:D25 Q7" xr:uid="{25196C70-295C-43FF-A050-7D2EA327A7B4}">
-      <formula1>#REF!</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:XFD1" xr:uid="{1CF26B28-1967-426C-8B8F-6D82F1D1CF4B}">
+      <formula1>"text,boolean,number,picklist,multiplicklist,lookup"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y6:Y24 Y27:Y37 U27:U37 U6:U24 Q6:Q24 Q27:Q37 M27:M37 M6:M24 I6:I24 I27:I37" xr:uid="{075AC0D6-992F-42FC-B5BD-F2F852CD6451}">
+      <formula1>"text,boolean,number,picklist,multiplicklist,lookup,date"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -3899,15 +3841,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010060A44420B6B801499790497461B7617A" ma:contentTypeVersion="11" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="fabbcee23a04d27af1ae9e54f4461bef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8f774076-1ef3-4740-8929-5969f04599b3" xmlns:ns4="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c03e0335abb4116b770311e5abaeb524" ns3:_="" ns4:_="">
     <xsd:import namespace="8f774076-1ef3-4740-8929-5969f04599b3"/>
@@ -4116,6 +4049,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -4123,14 +4065,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4CDBC7-0A6E-420D-A4CD-91BDFDE80302}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4145,6 +4079,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/default-mappings-xlsx/grabber/Grabber_Mapping_Salesforce_DE.xlsx
+++ b/default-mappings-xlsx/grabber/Grabber_Mapping_Salesforce_DE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\grabber\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{734904D7-1D80-4AE0-A444-4316F58E5FCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{479056EC-2D41-43D4-BB93-17BF69BA241D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Specifications" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="field_type">Specifications!$I$7:$I$24,Specifications!$M$7:$M$24,Specifications!$Q$7:$Q$24,Specifications!$Y$7:$Y$24,Specifications!$U$7:$U$24,Specifications!$U$27:$U$37,Specifications!$Y$27:$Y$37,Specifications!$Q$27:$Q$37,Specifications!$M$27:$M$37,Specifications!$I$27:$I$37</definedName>
+    <definedName name="field_type">Specifications!$I$7:$I$24,Specifications!$M$7:$M$24,Specifications!$Q$7:$Q$24,Specifications!$Y$7:$Y$24,Specifications!$U$7:$U$24,Specifications!$U$27:$U$35,Specifications!$Y$27:$Y$35,Specifications!$Q$27:$Q$35,Specifications!$M$27:$M$35,Specifications!$I$27:$I$35</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="74">
   <si>
     <t>Website</t>
   </si>
@@ -183,18 +183,6 @@
     <t>Bundesland</t>
   </si>
   <si>
-    <t>Kampagnen-ID</t>
-  </si>
-  <si>
-    <t>Vorlagen-ID</t>
-  </si>
-  <si>
-    <t>VR Titel</t>
-  </si>
-  <si>
-    <t>Vorlagentitel</t>
-  </si>
-  <si>
     <t>Erstellt am (Datum)</t>
   </si>
   <si>
@@ -234,9 +222,6 @@
     <t>BillingCountry</t>
   </si>
   <si>
-    <t>Das ist eine Notiz</t>
-  </si>
-  <si>
     <t>Pflichtfeld</t>
   </si>
   <si>
@@ -262,6 +247,9 @@
   </si>
   <si>
     <t>RecordTypeId</t>
+  </si>
+  <si>
+    <t>Notizen</t>
   </si>
 </sst>
 </file>
@@ -375,7 +363,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="75">
+  <borders count="70">
     <border>
       <left/>
       <right/>
@@ -741,7 +729,7 @@
         <color rgb="FFFE6C36"/>
       </left>
       <right/>
-      <top style="thick">
+      <top style="thin">
         <color rgb="FFFE6C36"/>
       </top>
       <bottom style="thin">
@@ -752,7 +740,7 @@
     <border>
       <left/>
       <right/>
-      <top style="thick">
+      <top style="thin">
         <color rgb="FFFE6C36"/>
       </top>
       <bottom style="thin">
@@ -765,7 +753,7 @@
       <right style="thick">
         <color rgb="FFFE6C36"/>
       </right>
-      <top style="thick">
+      <top style="thin">
         <color rgb="FFFE6C36"/>
       </top>
       <bottom style="thin">
@@ -781,7 +769,7 @@
       <top style="thin">
         <color rgb="FFFE6C36"/>
       </top>
-      <bottom style="thin">
+      <bottom style="thick">
         <color rgb="FFFE6C36"/>
       </bottom>
       <diagonal/>
@@ -792,7 +780,7 @@
       <top style="thin">
         <color rgb="FFFE6C36"/>
       </top>
-      <bottom style="thin">
+      <bottom style="thick">
         <color rgb="FFFE6C36"/>
       </bottom>
       <diagonal/>
@@ -805,57 +793,7 @@
       <top style="thin">
         <color rgb="FFFE6C36"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFFE6C36"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FFFE6C36"/>
-      </top>
       <bottom style="thick">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FFFE6C36"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FFFE6C36"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFE6C36"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFE6C36"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color rgb="FFFE6C36"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FFFE6C36"/>
       </bottom>
       <diagonal/>
@@ -955,19 +893,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFFE6C36"/>
-      </left>
-      <right style="thick">
-        <color rgb="FFFE6C36"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFFE6C36"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1325,7 +1250,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1368,39 +1293,36 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
@@ -1409,7 +1331,7 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1419,18 +1341,18 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1441,53 +1363,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="66" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="61" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="64" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="63" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="62" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="69" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="68" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="67" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1496,16 +1417,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1514,20 +1435,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="39">
+  <dxfs count="31">
     <dxf>
       <font>
         <b val="0"/>
@@ -1758,94 +1670,6 @@
       <fill>
         <patternFill patternType="darkUp">
           <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightHorizontal">
-          <fgColor theme="0" tint="-0.14996795556505021"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightHorizontal">
-          <fgColor theme="0" tint="-0.14996795556505021"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightHorizontal">
-          <fgColor theme="0" tint="-0.14996795556505021"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightHorizontal">
-          <fgColor theme="0" tint="-0.14996795556505021"/>
           <bgColor auto="1"/>
         </patternFill>
       </fill>
@@ -1976,11 +1800,11 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="snapADDY" pivot="0" count="5" xr9:uid="{A8851A67-88BF-475D-B211-A3CFCBFE5DEE}">
-      <tableStyleElement type="wholeTable" dxfId="38"/>
-      <tableStyleElement type="headerRow" dxfId="37"/>
-      <tableStyleElement type="firstColumn" dxfId="36"/>
-      <tableStyleElement type="firstRowStripe" dxfId="35"/>
-      <tableStyleElement type="secondRowStripe" dxfId="34"/>
+      <tableStyleElement type="wholeTable" dxfId="30"/>
+      <tableStyleElement type="headerRow" dxfId="29"/>
+      <tableStyleElement type="firstColumn" dxfId="28"/>
+      <tableStyleElement type="firstRowStripe" dxfId="27"/>
+      <tableStyleElement type="secondRowStripe" dxfId="26"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2092,7 +1916,7 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>105510</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>4396</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2452,10 +2276,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5027446F-BBDF-4A57-AA45-BC7D0EB64201}">
-  <dimension ref="A1:Y38"/>
+  <dimension ref="A1:Y36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -2489,8 +2313,8 @@
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:25" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G2" s="46"/>
-      <c r="K2" s="46"/>
+      <c r="G2" s="45"/>
+      <c r="K2" s="45"/>
     </row>
     <row r="3" spans="1:25" ht="80.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
@@ -2498,48 +2322,50 @@
       </c>
       <c r="B3" s="23"/>
       <c r="C3" s="34" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D3" s="34" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E3" s="35"/>
-      <c r="G3" s="98" t="s">
+      <c r="G3" s="96" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="98"/>
-      <c r="I3" s="98"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
       <c r="J3" s="5"/>
-      <c r="K3" s="98" t="s">
+      <c r="K3" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="L3" s="98"/>
-      <c r="M3" s="98"/>
-      <c r="O3" s="98" t="s">
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="O3" s="96" t="s">
         <v>30</v>
       </c>
-      <c r="P3" s="98"/>
-      <c r="Q3" s="98"/>
-      <c r="S3" s="95" t="s">
+      <c r="P3" s="96"/>
+      <c r="Q3" s="96"/>
+      <c r="S3" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="T3" s="96"/>
-      <c r="U3" s="97"/>
-      <c r="W3" s="95" t="s">
-        <v>70</v>
-      </c>
-      <c r="X3" s="96"/>
-      <c r="Y3" s="97"/>
+      <c r="T3" s="94"/>
+      <c r="U3" s="95"/>
+      <c r="W3" s="93" t="s">
+        <v>65</v>
+      </c>
+      <c r="X3" s="94"/>
+      <c r="Y3" s="95"/>
     </row>
     <row r="4" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="77" t="s">
+      <c r="A5" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="57"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="79" t="s">
+      <c r="B5" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="57"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="77" t="s">
         <v>37</v>
       </c>
       <c r="G5" s="17" t="s">
@@ -2570,31 +2396,31 @@
       <c r="Q5" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="S5" s="80" t="s">
+      <c r="S5" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="T5" s="81" t="s">
+      <c r="T5" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="U5" s="82" t="s">
+      <c r="U5" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="W5" s="80" t="s">
+      <c r="W5" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="X5" s="81" t="s">
+      <c r="X5" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="Y5" s="82" t="s">
+      <c r="Y5" s="80" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="76"/>
+      <c r="A6" s="74"/>
       <c r="B6" s="24"/>
-      <c r="C6" s="59"/>
+      <c r="C6" s="58"/>
       <c r="D6" s="29"/>
-      <c r="E6" s="39"/>
+      <c r="E6" s="38"/>
       <c r="G6" s="8"/>
       <c r="H6" s="3"/>
       <c r="I6" s="9"/>
@@ -2605,76 +2431,74 @@
       <c r="O6" s="15"/>
       <c r="P6" s="4"/>
       <c r="Q6" s="16"/>
-      <c r="S6" s="83" t="s">
+      <c r="S6" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="T6" s="51" t="s">
+      <c r="T6" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="U6" s="84"/>
-      <c r="W6" s="90"/>
+      <c r="U6" s="82"/>
+      <c r="W6" s="88"/>
       <c r="X6" s="4"/>
-      <c r="Y6" s="91"/>
+      <c r="Y6" s="89"/>
     </row>
-    <row r="7" spans="1:25" s="45" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="66" t="s">
+    <row r="7" spans="1:25" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="47" t="s">
-        <v>68</v>
-      </c>
-      <c r="C7" s="60"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="49"/>
-      <c r="G7" s="50" t="s">
+      <c r="B7" s="46"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="48"/>
+      <c r="G7" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="51" t="s">
+      <c r="H7" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="I7" s="52" t="s">
-        <v>74</v>
-      </c>
-      <c r="J7" s="53"/>
-      <c r="K7" s="50" t="s">
+      <c r="I7" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="J7" s="52"/>
+      <c r="K7" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="L7" s="51" t="s">
+      <c r="L7" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="M7" s="52" t="s">
-        <v>74</v>
-      </c>
-      <c r="O7" s="54"/>
-      <c r="P7" s="55"/>
-      <c r="Q7" s="56"/>
-      <c r="S7" s="85" t="s">
+      <c r="M7" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="O7" s="53"/>
+      <c r="P7" s="54"/>
+      <c r="Q7" s="55"/>
+      <c r="S7" s="83" t="s">
         <v>33</v>
       </c>
       <c r="T7" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="U7" s="84"/>
-      <c r="W7" s="86"/>
+      <c r="U7" s="82"/>
+      <c r="W7" s="84"/>
       <c r="X7" s="3"/>
-      <c r="Y7" s="84"/>
+      <c r="Y7" s="82"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" s="67" t="s">
+      <c r="A8" s="66" t="s">
         <v>40</v>
       </c>
       <c r="B8" s="25"/>
-      <c r="C8" s="61"/>
+      <c r="C8" s="60"/>
       <c r="D8" s="30"/>
-      <c r="E8" s="40"/>
+      <c r="E8" s="39"/>
       <c r="G8" s="8" t="s">
         <v>40</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="52" t="s">
-        <v>72</v>
+      <c r="I8" s="51" t="s">
+        <v>67</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="8" t="s">
@@ -2684,26 +2508,26 @@
         <v>4</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="O8" s="8"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="9"/>
-      <c r="S8" s="86"/>
+      <c r="S8" s="84"/>
       <c r="T8" s="3"/>
-      <c r="U8" s="84"/>
-      <c r="W8" s="86"/>
+      <c r="U8" s="82"/>
+      <c r="W8" s="84"/>
       <c r="X8" s="3"/>
-      <c r="Y8" s="84"/>
+      <c r="Y8" s="82"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9" s="67" t="s">
+      <c r="A9" s="66" t="s">
         <v>41</v>
       </c>
       <c r="B9" s="25"/>
-      <c r="C9" s="61"/>
+      <c r="C9" s="60"/>
       <c r="D9" s="30"/>
-      <c r="E9" s="40"/>
+      <c r="E9" s="39"/>
       <c r="G9" s="8" t="s">
         <v>41</v>
       </c>
@@ -2711,7 +2535,7 @@
         <v>5</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="8" t="s">
@@ -2721,26 +2545,26 @@
         <v>5</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="O9" s="8"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="9"/>
-      <c r="S9" s="86"/>
+      <c r="S9" s="84"/>
       <c r="T9" s="3"/>
-      <c r="U9" s="84"/>
-      <c r="W9" s="86"/>
+      <c r="U9" s="82"/>
+      <c r="W9" s="84"/>
       <c r="X9" s="3"/>
-      <c r="Y9" s="84"/>
+      <c r="Y9" s="82"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10" s="67" t="s">
+      <c r="A10" s="66" t="s">
         <v>42</v>
       </c>
       <c r="B10" s="25"/>
-      <c r="C10" s="61"/>
+      <c r="C10" s="60"/>
       <c r="D10" s="30"/>
-      <c r="E10" s="40"/>
+      <c r="E10" s="39"/>
       <c r="G10" s="8" t="s">
         <v>42</v>
       </c>
@@ -2748,7 +2572,7 @@
         <v>6</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="8" t="s">
@@ -2758,26 +2582,26 @@
         <v>6</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="O10" s="8"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="9"/>
-      <c r="S10" s="83"/>
-      <c r="T10" s="51"/>
-      <c r="U10" s="87"/>
-      <c r="W10" s="86"/>
+      <c r="S10" s="81"/>
+      <c r="T10" s="50"/>
+      <c r="U10" s="85"/>
+      <c r="W10" s="84"/>
       <c r="X10" s="3"/>
-      <c r="Y10" s="84"/>
+      <c r="Y10" s="82"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A11" s="67" t="s">
+      <c r="A11" s="66" t="s">
         <v>43</v>
       </c>
       <c r="B11" s="25"/>
-      <c r="C11" s="61"/>
+      <c r="C11" s="60"/>
       <c r="D11" s="30"/>
-      <c r="E11" s="40"/>
+      <c r="E11" s="39"/>
       <c r="G11" s="8" t="s">
         <v>43</v>
       </c>
@@ -2785,36 +2609,36 @@
         <v>7</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="8"/>
       <c r="L11" s="3"/>
       <c r="M11" s="9"/>
       <c r="O11" s="8" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="P11" s="3" t="s">
         <v>21</v>
       </c>
       <c r="Q11" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="S11" s="86"/>
+        <v>67</v>
+      </c>
+      <c r="S11" s="84"/>
       <c r="T11" s="3"/>
-      <c r="U11" s="84"/>
-      <c r="W11" s="86"/>
+      <c r="U11" s="82"/>
+      <c r="W11" s="84"/>
       <c r="X11" s="3"/>
-      <c r="Y11" s="84"/>
+      <c r="Y11" s="82"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A12" s="68" t="s">
+      <c r="A12" s="67" t="s">
         <v>46</v>
       </c>
       <c r="B12" s="26"/>
-      <c r="C12" s="61"/>
+      <c r="C12" s="60"/>
       <c r="D12" s="30"/>
-      <c r="E12" s="40"/>
+      <c r="E12" s="39"/>
       <c r="G12" s="15" t="s">
         <v>46</v>
       </c>
@@ -2822,7 +2646,7 @@
         <v>8</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="15" t="s">
@@ -2832,75 +2656,75 @@
         <v>16</v>
       </c>
       <c r="M12" s="16" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="O12" s="15" t="s">
         <v>46</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="Q12" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="S12" s="88"/>
-      <c r="T12" s="55"/>
-      <c r="U12" s="89"/>
-      <c r="W12" s="86"/>
+        <v>67</v>
+      </c>
+      <c r="S12" s="86"/>
+      <c r="T12" s="54"/>
+      <c r="U12" s="87"/>
+      <c r="W12" s="84"/>
       <c r="X12" s="3"/>
-      <c r="Y12" s="84"/>
+      <c r="Y12" s="82"/>
     </row>
-    <row r="13" spans="1:25" s="45" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="66" t="s">
+    <row r="13" spans="1:25" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="47"/>
-      <c r="C13" s="60"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="49"/>
-      <c r="G13" s="54" t="s">
+      <c r="B13" s="46"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="48"/>
+      <c r="G13" s="53" t="s">
         <v>47</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>9</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="J13" s="53"/>
-      <c r="K13" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="J13" s="52"/>
+      <c r="K13" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="L13" s="55" t="s">
+      <c r="L13" s="54" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="O13" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="O13" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="P13" s="55" t="s">
-        <v>64</v>
+      <c r="P13" s="54" t="s">
+        <v>60</v>
       </c>
       <c r="Q13" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="S13" s="83"/>
-      <c r="T13" s="51"/>
-      <c r="U13" s="87"/>
-      <c r="W13" s="88"/>
-      <c r="X13" s="55"/>
-      <c r="Y13" s="89"/>
+        <v>67</v>
+      </c>
+      <c r="S13" s="81"/>
+      <c r="T13" s="50"/>
+      <c r="U13" s="85"/>
+      <c r="W13" s="86"/>
+      <c r="X13" s="54"/>
+      <c r="Y13" s="87"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A14" s="69" t="s">
+      <c r="A14" s="68" t="s">
         <v>50</v>
       </c>
       <c r="B14" s="27"/>
-      <c r="C14" s="61"/>
+      <c r="C14" s="60"/>
       <c r="D14" s="30"/>
-      <c r="E14" s="40"/>
+      <c r="E14" s="39"/>
       <c r="G14" s="13" t="s">
         <v>50</v>
       </c>
@@ -2908,7 +2732,7 @@
         <v>10</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="13" t="s">
@@ -2918,32 +2742,32 @@
         <v>18</v>
       </c>
       <c r="M14" s="16" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="O14" s="13" t="s">
         <v>50</v>
       </c>
       <c r="P14" s="14" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="Q14" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="S14" s="85"/>
+        <v>67</v>
+      </c>
+      <c r="S14" s="83"/>
       <c r="T14" s="14"/>
-      <c r="U14" s="84"/>
-      <c r="W14" s="86"/>
+      <c r="U14" s="82"/>
+      <c r="W14" s="84"/>
       <c r="X14" s="3"/>
-      <c r="Y14" s="84"/>
+      <c r="Y14" s="82"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A15" s="67" t="s">
+      <c r="A15" s="66" t="s">
         <v>48</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="61"/>
+      <c r="C15" s="60"/>
       <c r="D15" s="30"/>
-      <c r="E15" s="40"/>
+      <c r="E15" s="39"/>
       <c r="G15" s="8" t="s">
         <v>48</v>
       </c>
@@ -2951,7 +2775,7 @@
         <v>11</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="8" t="s">
@@ -2961,32 +2785,32 @@
         <v>19</v>
       </c>
       <c r="M15" s="16" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="O15" s="8" t="s">
         <v>48</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="Q15" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="S15" s="86"/>
+        <v>67</v>
+      </c>
+      <c r="S15" s="84"/>
       <c r="T15" s="3"/>
-      <c r="U15" s="84"/>
-      <c r="W15" s="86"/>
+      <c r="U15" s="82"/>
+      <c r="W15" s="84"/>
       <c r="X15" s="3"/>
-      <c r="Y15" s="84"/>
+      <c r="Y15" s="82"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16" s="67" t="s">
+      <c r="A16" s="66" t="s">
         <v>49</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="61"/>
+      <c r="C16" s="60"/>
       <c r="D16" s="30"/>
-      <c r="E16" s="40"/>
+      <c r="E16" s="39"/>
       <c r="G16" s="8" t="s">
         <v>49</v>
       </c>
@@ -2994,7 +2818,7 @@
         <v>12</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="8" t="s">
@@ -3004,32 +2828,32 @@
         <v>20</v>
       </c>
       <c r="M16" s="16" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="O16" s="8" t="s">
         <v>49</v>
       </c>
       <c r="P16" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q16" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="Q16" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="S16" s="86"/>
+      <c r="S16" s="84"/>
       <c r="T16" s="3"/>
-      <c r="U16" s="84"/>
-      <c r="W16" s="86"/>
+      <c r="U16" s="82"/>
+      <c r="W16" s="84"/>
       <c r="X16" s="3"/>
-      <c r="Y16" s="84"/>
+      <c r="Y16" s="82"/>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A17" s="67" t="s">
+      <c r="A17" s="66" t="s">
         <v>44</v>
       </c>
       <c r="B17" s="25"/>
-      <c r="C17" s="61"/>
+      <c r="C17" s="60"/>
       <c r="D17" s="30"/>
-      <c r="E17" s="40"/>
+      <c r="E17" s="39"/>
       <c r="G17" s="8" t="s">
         <v>44</v>
       </c>
@@ -3037,7 +2861,7 @@
         <v>13</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="8" t="s">
@@ -3047,7 +2871,7 @@
         <v>13</v>
       </c>
       <c r="M17" s="16" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="O17" s="8" t="s">
         <v>44</v>
@@ -3056,23 +2880,23 @@
         <v>13</v>
       </c>
       <c r="Q17" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="S17" s="86"/>
+        <v>67</v>
+      </c>
+      <c r="S17" s="84"/>
       <c r="T17" s="3"/>
-      <c r="U17" s="84"/>
-      <c r="W17" s="86"/>
+      <c r="U17" s="82"/>
+      <c r="W17" s="84"/>
       <c r="X17" s="3"/>
-      <c r="Y17" s="84"/>
+      <c r="Y17" s="82"/>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A18" s="67" t="s">
+      <c r="A18" s="66" t="s">
         <v>45</v>
       </c>
       <c r="B18" s="25"/>
-      <c r="C18" s="61"/>
+      <c r="C18" s="60"/>
       <c r="D18" s="30"/>
-      <c r="E18" s="40"/>
+      <c r="E18" s="39"/>
       <c r="G18" s="8" t="s">
         <v>45</v>
       </c>
@@ -3080,7 +2904,7 @@
         <v>14</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="8" t="s">
@@ -3090,69 +2914,69 @@
         <v>14</v>
       </c>
       <c r="M18" s="16" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="O18" s="8"/>
       <c r="P18" s="3"/>
       <c r="Q18" s="9"/>
-      <c r="S18" s="86"/>
+      <c r="S18" s="84"/>
       <c r="T18" s="3"/>
-      <c r="U18" s="84"/>
-      <c r="W18" s="86"/>
+      <c r="U18" s="82"/>
+      <c r="W18" s="84"/>
       <c r="X18" s="3"/>
-      <c r="Y18" s="84"/>
+      <c r="Y18" s="82"/>
     </row>
-    <row r="19" spans="1:25" s="45" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="66" t="s">
+    <row r="19" spans="1:25" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="47"/>
-      <c r="C19" s="60"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="49"/>
-      <c r="G19" s="54" t="s">
+      <c r="B19" s="46"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="48"/>
+      <c r="G19" s="53" t="s">
         <v>2</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>2</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="J19" s="53"/>
-      <c r="K19" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="J19" s="52"/>
+      <c r="K19" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="L19" s="55" t="s">
+      <c r="L19" s="54" t="s">
         <v>2</v>
       </c>
       <c r="M19" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="O19" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="O19" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="P19" s="55" t="s">
+      <c r="P19" s="54" t="s">
         <v>2</v>
       </c>
       <c r="Q19" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="S19" s="88"/>
-      <c r="T19" s="55"/>
-      <c r="U19" s="89"/>
-      <c r="W19" s="88"/>
-      <c r="X19" s="55"/>
-      <c r="Y19" s="89"/>
+        <v>67</v>
+      </c>
+      <c r="S19" s="86"/>
+      <c r="T19" s="54"/>
+      <c r="U19" s="87"/>
+      <c r="W19" s="86"/>
+      <c r="X19" s="54"/>
+      <c r="Y19" s="87"/>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A20" s="67" t="s">
+      <c r="A20" s="66" t="s">
         <v>1</v>
       </c>
       <c r="B20" s="25"/>
-      <c r="C20" s="61"/>
+      <c r="C20" s="60"/>
       <c r="D20" s="30"/>
-      <c r="E20" s="40"/>
+      <c r="E20" s="39"/>
       <c r="G20" s="8" t="s">
         <v>1</v>
       </c>
@@ -3160,7 +2984,7 @@
         <v>15</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="8" t="s">
@@ -3170,26 +2994,26 @@
         <v>15</v>
       </c>
       <c r="M20" s="16" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="O20" s="8"/>
       <c r="P20" s="3"/>
       <c r="Q20" s="9"/>
-      <c r="S20" s="86"/>
+      <c r="S20" s="84"/>
       <c r="T20" s="3"/>
-      <c r="U20" s="84"/>
-      <c r="W20" s="86"/>
+      <c r="U20" s="82"/>
+      <c r="W20" s="84"/>
       <c r="X20" s="3"/>
-      <c r="Y20" s="84"/>
+      <c r="Y20" s="82"/>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A21" s="68" t="s">
+      <c r="A21" s="67" t="s">
         <v>0</v>
       </c>
       <c r="B21" s="25"/>
-      <c r="C21" s="61"/>
+      <c r="C21" s="60"/>
       <c r="D21" s="30"/>
-      <c r="E21" s="40"/>
+      <c r="E21" s="39"/>
       <c r="G21" s="15" t="s">
         <v>0</v>
       </c>
@@ -3197,7 +3021,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="15"/>
@@ -3210,31 +3034,31 @@
         <v>0</v>
       </c>
       <c r="Q21" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="S21" s="90"/>
+        <v>67</v>
+      </c>
+      <c r="S21" s="88"/>
       <c r="T21" s="4"/>
-      <c r="U21" s="91"/>
-      <c r="W21" s="90"/>
+      <c r="U21" s="89"/>
+      <c r="W21" s="88"/>
       <c r="X21" s="4"/>
-      <c r="Y21" s="91"/>
+      <c r="Y21" s="89"/>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A22" s="68" t="s">
-        <v>59</v>
+      <c r="A22" s="67" t="s">
+        <v>55</v>
       </c>
       <c r="B22" s="25"/>
-      <c r="C22" s="61"/>
+      <c r="C22" s="60"/>
       <c r="D22" s="30"/>
-      <c r="E22" s="40"/>
+      <c r="E22" s="39"/>
       <c r="G22" s="15" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="15"/>
@@ -3243,29 +3067,29 @@
       <c r="O22" s="15"/>
       <c r="P22" s="4"/>
       <c r="Q22" s="9"/>
-      <c r="S22" s="90"/>
+      <c r="S22" s="88"/>
       <c r="T22" s="4"/>
-      <c r="U22" s="91"/>
-      <c r="W22" s="90"/>
+      <c r="U22" s="89"/>
+      <c r="W22" s="88"/>
       <c r="X22" s="4"/>
-      <c r="Y22" s="91"/>
+      <c r="Y22" s="89"/>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A23" s="68" t="s">
-        <v>60</v>
+      <c r="A23" s="67" t="s">
+        <v>56</v>
       </c>
       <c r="B23" s="26"/>
-      <c r="C23" s="72"/>
-      <c r="D23" s="73"/>
-      <c r="E23" s="74"/>
+      <c r="C23" s="70"/>
+      <c r="D23" s="71"/>
+      <c r="E23" s="72"/>
       <c r="G23" s="15" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="J23" s="1"/>
       <c r="K23" s="15"/>
@@ -3274,55 +3098,55 @@
       <c r="O23" s="15"/>
       <c r="P23" s="4"/>
       <c r="Q23" s="9"/>
-      <c r="S23" s="90"/>
+      <c r="S23" s="88"/>
       <c r="T23" s="4"/>
-      <c r="U23" s="91"/>
-      <c r="W23" s="90"/>
+      <c r="U23" s="89"/>
+      <c r="W23" s="88"/>
       <c r="X23" s="4"/>
-      <c r="Y23" s="91"/>
+      <c r="Y23" s="89"/>
     </row>
     <row r="24" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="21" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B24" s="28"/>
-      <c r="C24" s="62"/>
+      <c r="C24" s="61"/>
       <c r="D24" s="31"/>
-      <c r="E24" s="41"/>
+      <c r="E24" s="40"/>
       <c r="G24" s="10" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="I24" s="12" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="J24" s="1"/>
       <c r="K24" s="10" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="L24" s="11" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="M24" s="12" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="O24" s="10" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="P24" s="11" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="Q24" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="S24" s="92"/>
-      <c r="T24" s="93"/>
-      <c r="U24" s="94"/>
-      <c r="W24" s="92"/>
-      <c r="X24" s="93"/>
-      <c r="Y24" s="94"/>
+        <v>68</v>
+      </c>
+      <c r="S24" s="90"/>
+      <c r="T24" s="91"/>
+      <c r="U24" s="92"/>
+      <c r="W24" s="90"/>
+      <c r="X24" s="91"/>
+      <c r="Y24" s="92"/>
     </row>
     <row r="25" spans="1:25" ht="7.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G25" s="6"/>
@@ -3335,16 +3159,16 @@
       <c r="O25" s="6"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="7"/>
-      <c r="S25" s="63"/>
+      <c r="S25" s="62"/>
       <c r="T25" s="2"/>
-      <c r="U25" s="64"/>
-      <c r="V25" s="65"/>
-      <c r="W25" s="63"/>
+      <c r="U25" s="63"/>
+      <c r="V25" s="64"/>
+      <c r="W25" s="62"/>
       <c r="X25" s="1"/>
       <c r="Y25" s="7"/>
     </row>
     <row r="26" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="75" t="s">
+      <c r="A26" s="73" t="s">
         <v>28</v>
       </c>
       <c r="B26" s="20" t="s">
@@ -3402,14 +3226,14 @@
       </c>
     </row>
     <row r="27" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="70" t="s">
+      <c r="A27" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="99" t="s">
+      <c r="B27" s="97" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="100"/>
-      <c r="D27" s="101"/>
+      <c r="C27" s="98"/>
+      <c r="D27" s="99"/>
       <c r="E27" s="36"/>
       <c r="G27" s="8"/>
       <c r="H27" s="3"/>
@@ -3428,15 +3252,15 @@
       <c r="Y27" s="9"/>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A28" s="71" t="s">
+      <c r="A28" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="102" t="s">
+      <c r="B28" s="97" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="103"/>
-      <c r="D28" s="104"/>
-      <c r="E28" s="37"/>
+      <c r="C28" s="98"/>
+      <c r="D28" s="99"/>
+      <c r="E28" s="36"/>
       <c r="G28" s="8"/>
       <c r="H28" s="3"/>
       <c r="I28" s="9"/>
@@ -3454,15 +3278,11 @@
       <c r="Y28" s="9"/>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A29" s="71" t="s">
-        <v>55</v>
-      </c>
-      <c r="B29" s="102" t="s">
-        <v>56</v>
-      </c>
-      <c r="C29" s="103"/>
-      <c r="D29" s="104"/>
-      <c r="E29" s="37"/>
+      <c r="A29" s="69"/>
+      <c r="B29" s="97"/>
+      <c r="C29" s="98"/>
+      <c r="D29" s="99"/>
+      <c r="E29" s="36"/>
       <c r="G29" s="8"/>
       <c r="H29" s="3"/>
       <c r="I29" s="9"/>
@@ -3480,15 +3300,11 @@
       <c r="Y29" s="9"/>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A30" s="71" t="s">
-        <v>57</v>
-      </c>
-      <c r="B30" s="102" t="s">
-        <v>58</v>
-      </c>
-      <c r="C30" s="103"/>
-      <c r="D30" s="104"/>
-      <c r="E30" s="37"/>
+      <c r="A30" s="32"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="36"/>
       <c r="G30" s="8"/>
       <c r="H30" s="3"/>
       <c r="I30" s="9"/>
@@ -3506,11 +3322,11 @@
       <c r="Y30" s="9"/>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A31" s="71"/>
-      <c r="B31" s="102"/>
-      <c r="C31" s="103"/>
-      <c r="D31" s="104"/>
-      <c r="E31" s="37"/>
+      <c r="A31" s="32"/>
+      <c r="B31" s="100"/>
+      <c r="C31" s="101"/>
+      <c r="D31" s="102"/>
+      <c r="E31" s="36"/>
       <c r="G31" s="8"/>
       <c r="H31" s="3"/>
       <c r="I31" s="9"/>
@@ -3529,10 +3345,10 @@
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="32"/>
-      <c r="B32" s="42"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="37"/>
+      <c r="B32" s="100"/>
+      <c r="C32" s="101"/>
+      <c r="D32" s="102"/>
+      <c r="E32" s="36"/>
       <c r="G32" s="8"/>
       <c r="H32" s="3"/>
       <c r="I32" s="9"/>
@@ -3551,10 +3367,10 @@
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="32"/>
-      <c r="B33" s="105"/>
-      <c r="C33" s="106"/>
-      <c r="D33" s="107"/>
-      <c r="E33" s="37"/>
+      <c r="B33" s="100"/>
+      <c r="C33" s="101"/>
+      <c r="D33" s="102"/>
+      <c r="E33" s="36"/>
       <c r="G33" s="8"/>
       <c r="H33" s="3"/>
       <c r="I33" s="9"/>
@@ -3573,10 +3389,10 @@
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="32"/>
-      <c r="B34" s="105"/>
-      <c r="C34" s="106"/>
-      <c r="D34" s="107"/>
-      <c r="E34" s="37"/>
+      <c r="B34" s="100"/>
+      <c r="C34" s="101"/>
+      <c r="D34" s="102"/>
+      <c r="E34" s="36"/>
       <c r="G34" s="8"/>
       <c r="H34" s="3"/>
       <c r="I34" s="9"/>
@@ -3593,90 +3409,44 @@
       <c r="X34" s="3"/>
       <c r="Y34" s="9"/>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A35" s="32"/>
-      <c r="B35" s="105"/>
-      <c r="C35" s="106"/>
-      <c r="D35" s="107"/>
+    <row r="35" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="33"/>
+      <c r="B35" s="103"/>
+      <c r="C35" s="104"/>
+      <c r="D35" s="105"/>
       <c r="E35" s="37"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="9"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="9"/>
-      <c r="O35" s="8"/>
-      <c r="P35" s="3"/>
-      <c r="Q35" s="9"/>
-      <c r="S35" s="8"/>
-      <c r="T35" s="3"/>
-      <c r="U35" s="9"/>
-      <c r="W35" s="8"/>
-      <c r="X35" s="3"/>
-      <c r="Y35" s="9"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="12"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="12"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="11"/>
+      <c r="Q35" s="12"/>
+      <c r="S35" s="10"/>
+      <c r="T35" s="11"/>
+      <c r="U35" s="12"/>
+      <c r="W35" s="10"/>
+      <c r="X35" s="11"/>
+      <c r="Y35" s="12"/>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A36" s="32"/>
-      <c r="B36" s="105"/>
-      <c r="C36" s="106"/>
-      <c r="D36" s="107"/>
-      <c r="E36" s="37"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="9"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="9"/>
-      <c r="O36" s="8"/>
-      <c r="P36" s="3"/>
-      <c r="Q36" s="9"/>
-      <c r="S36" s="8"/>
-      <c r="T36" s="3"/>
-      <c r="U36" s="9"/>
-      <c r="W36" s="8"/>
-      <c r="X36" s="3"/>
-      <c r="Y36" s="9"/>
-    </row>
-    <row r="37" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="33"/>
-      <c r="B37" s="108"/>
-      <c r="C37" s="109"/>
-      <c r="D37" s="110"/>
-      <c r="E37" s="38"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="12"/>
-      <c r="K37" s="10"/>
-      <c r="L37" s="11"/>
-      <c r="M37" s="12"/>
-      <c r="O37" s="10"/>
-      <c r="P37" s="11"/>
-      <c r="Q37" s="12"/>
-      <c r="S37" s="10"/>
-      <c r="T37" s="11"/>
-      <c r="U37" s="12"/>
-      <c r="W37" s="10"/>
-      <c r="X37" s="11"/>
-      <c r="Y37" s="12"/>
-    </row>
-    <row r="38" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection insertColumns="0" insertRows="0"/>
   <protectedRanges>
     <protectedRange sqref="A24:H24 A12:P23 Q12:X24 A11:X11 V10:X10 A10:T10 A8:X9 A7:Y7 A6:X6 J24:P24" name="Contact Fields"/>
-    <protectedRange sqref="A27:Y37 I24" name="Questionnaire"/>
+    <protectedRange sqref="A27:Y35 I24" name="Questionnaire"/>
   </protectedRanges>
-  <mergeCells count="15">
+  <mergeCells count="13">
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
     <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
     <mergeCell ref="S3:U3"/>
     <mergeCell ref="W3:Y3"/>
     <mergeCell ref="G3:I3"/>
@@ -3685,50 +3455,18 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A25:AG25 A24:H24 B12:P23 B7:F7 J7 Q15:AG24 N7:R7 Q12:R14 V12:AG14 B8:AG11 U6:U7 V7 Z7:AG7 J24:P24">
-    <cfRule type="expression" dxfId="33" priority="47">
+    <cfRule type="expression" dxfId="25" priority="47">
       <formula>$C6="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="48">
+    <cfRule type="expression" dxfId="24" priority="48">
       <formula>$D6="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W27:Y37">
-    <cfRule type="expression" dxfId="31" priority="45">
+  <conditionalFormatting sqref="W27:Y35 S27:U35 O27:Q35 K27:M35 G27:I35">
+    <cfRule type="expression" dxfId="23" priority="45">
       <formula>$C27="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="46">
-      <formula>$D27="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S27:U37">
-    <cfRule type="expression" dxfId="29" priority="43">
-      <formula>$C27="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="28" priority="44">
-      <formula>$D27="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O27:Q37">
-    <cfRule type="expression" dxfId="27" priority="41">
-      <formula>$C27="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="26" priority="42">
-      <formula>$D27="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K27:M37">
-    <cfRule type="expression" dxfId="25" priority="39">
-      <formula>$C27="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="40">
-      <formula>$D27="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G27:I37">
-    <cfRule type="expression" dxfId="23" priority="37">
-      <formula>$C27="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="38">
+    <cfRule type="expression" dxfId="22" priority="46">
       <formula>$D27="x"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3830,7 +3568,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:XFD1" xr:uid="{1CF26B28-1967-426C-8B8F-6D82F1D1CF4B}">
       <formula1>"text,boolean,number,picklist,multiplicklist,lookup"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y6:Y24 Y27:Y37 U27:U37 U6:U24 Q6:Q24 Q27:Q37 M27:M37 M6:M24 I6:I24 I27:I37" xr:uid="{075AC0D6-992F-42FC-B5BD-F2F852CD6451}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y6:Y24 U6:U24 Q6:Q24 M6:M24 I6:I24 Y27:Y35 U27:U35 Q27:Q35 M27:M35 I27:I35" xr:uid="{075AC0D6-992F-42FC-B5BD-F2F852CD6451}">
       <formula1>"text,boolean,number,picklist,multiplicklist,lookup,date"</formula1>
     </dataValidation>
   </dataValidations>

--- a/default-mappings-xlsx/grabber/Grabber_Mapping_Salesforce_DE.xlsx
+++ b/default-mappings-xlsx/grabber/Grabber_Mapping_Salesforce_DE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\grabber\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{479056EC-2D41-43D4-BB93-17BF69BA241D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB71EE8-B922-4830-B338-8F8B1EEAADBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2250" windowWidth="11370" windowHeight="12480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Specifications" sheetId="2" r:id="rId1"/>
@@ -363,7 +363,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="70">
+  <borders count="68">
     <border>
       <left/>
       <right/>
@@ -831,21 +831,6 @@
       <right style="thin">
         <color rgb="FF9DA600"/>
       </right>
-      <top style="thick">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF9DA600"/>
-      </right>
       <top style="thin">
         <color rgb="FF9DA600"/>
       </top>
@@ -977,19 +962,6 @@
       <bottom style="thick">
         <color rgb="FF9DA600"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1250,7 +1222,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1295,25 +1267,25 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1331,7 +1303,7 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1341,18 +1313,12 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1363,60 +1329,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="59" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="62" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="61" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="60" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="64" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="63" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="62" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1435,11 +1377,472 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="31">
+  <dxfs count="71">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1800,11 +2203,11 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="snapADDY" pivot="0" count="5" xr9:uid="{A8851A67-88BF-475D-B211-A3CFCBFE5DEE}">
-      <tableStyleElement type="wholeTable" dxfId="30"/>
-      <tableStyleElement type="headerRow" dxfId="29"/>
-      <tableStyleElement type="firstColumn" dxfId="28"/>
-      <tableStyleElement type="firstRowStripe" dxfId="27"/>
-      <tableStyleElement type="secondRowStripe" dxfId="26"/>
+      <tableStyleElement type="wholeTable" dxfId="70"/>
+      <tableStyleElement type="headerRow" dxfId="69"/>
+      <tableStyleElement type="firstColumn" dxfId="68"/>
+      <tableStyleElement type="firstRowStripe" dxfId="67"/>
+      <tableStyleElement type="secondRowStripe" dxfId="66"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2279,7 +2682,7 @@
   <dimension ref="A1:Y36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -2328,44 +2731,44 @@
         <v>66</v>
       </c>
       <c r="E3" s="35"/>
-      <c r="G3" s="96" t="s">
+      <c r="G3" s="102" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
       <c r="J3" s="5"/>
-      <c r="K3" s="96" t="s">
+      <c r="K3" s="102" t="s">
         <v>29</v>
       </c>
-      <c r="L3" s="96"/>
-      <c r="M3" s="96"/>
-      <c r="O3" s="96" t="s">
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
+      <c r="O3" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="P3" s="96"/>
-      <c r="Q3" s="96"/>
-      <c r="S3" s="93" t="s">
+      <c r="P3" s="102"/>
+      <c r="Q3" s="102"/>
+      <c r="S3" s="99" t="s">
         <v>38</v>
       </c>
-      <c r="T3" s="94"/>
-      <c r="U3" s="95"/>
-      <c r="W3" s="93" t="s">
+      <c r="T3" s="100"/>
+      <c r="U3" s="101"/>
+      <c r="W3" s="99" t="s">
         <v>65</v>
       </c>
-      <c r="X3" s="94"/>
-      <c r="Y3" s="95"/>
+      <c r="X3" s="100"/>
+      <c r="Y3" s="101"/>
     </row>
     <row r="4" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="75" t="s">
+      <c r="A5" s="72" t="s">
         <v>26</v>
       </c>
       <c r="B5" s="56" t="s">
         <v>73</v>
       </c>
       <c r="C5" s="57"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="77" t="s">
+      <c r="D5" s="73"/>
+      <c r="E5" s="74" t="s">
         <v>37</v>
       </c>
       <c r="G5" s="17" t="s">
@@ -2396,27 +2799,27 @@
       <c r="Q5" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="S5" s="78" t="s">
+      <c r="S5" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="T5" s="79" t="s">
+      <c r="T5" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="U5" s="80" t="s">
+      <c r="U5" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="W5" s="78" t="s">
+      <c r="W5" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="X5" s="79" t="s">
+      <c r="X5" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="Y5" s="80" t="s">
+      <c r="Y5" s="77" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="74"/>
+      <c r="A6" s="71"/>
       <c r="B6" s="24"/>
       <c r="C6" s="58"/>
       <c r="D6" s="29"/>
@@ -2431,23 +2834,23 @@
       <c r="O6" s="15"/>
       <c r="P6" s="4"/>
       <c r="Q6" s="16"/>
-      <c r="S6" s="81" t="s">
+      <c r="S6" s="78" t="s">
         <v>31</v>
       </c>
       <c r="T6" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="U6" s="82"/>
-      <c r="W6" s="88"/>
+      <c r="U6" s="79"/>
+      <c r="W6" s="85"/>
       <c r="X6" s="4"/>
-      <c r="Y6" s="89"/>
+      <c r="Y6" s="86"/>
     </row>
     <row r="7" spans="1:25" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="63" t="s">
         <v>39</v>
       </c>
       <c r="B7" s="46"/>
-      <c r="C7" s="59"/>
+      <c r="C7" s="58"/>
       <c r="D7" s="47"/>
       <c r="E7" s="48"/>
       <c r="G7" s="49" t="s">
@@ -2472,23 +2875,23 @@
       <c r="O7" s="53"/>
       <c r="P7" s="54"/>
       <c r="Q7" s="55"/>
-      <c r="S7" s="83" t="s">
+      <c r="S7" s="80" t="s">
         <v>33</v>
       </c>
       <c r="T7" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="U7" s="82"/>
-      <c r="W7" s="84"/>
+      <c r="U7" s="79"/>
+      <c r="W7" s="81"/>
       <c r="X7" s="3"/>
-      <c r="Y7" s="82"/>
+      <c r="Y7" s="79"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" s="66" t="s">
+      <c r="A8" s="64" t="s">
         <v>40</v>
       </c>
       <c r="B8" s="25"/>
-      <c r="C8" s="60"/>
+      <c r="C8" s="58"/>
       <c r="D8" s="30"/>
       <c r="E8" s="39"/>
       <c r="G8" s="8" t="s">
@@ -2513,19 +2916,19 @@
       <c r="O8" s="8"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="9"/>
-      <c r="S8" s="84"/>
+      <c r="S8" s="81"/>
       <c r="T8" s="3"/>
-      <c r="U8" s="82"/>
-      <c r="W8" s="84"/>
+      <c r="U8" s="79"/>
+      <c r="W8" s="81"/>
       <c r="X8" s="3"/>
-      <c r="Y8" s="82"/>
+      <c r="Y8" s="79"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9" s="66" t="s">
+      <c r="A9" s="64" t="s">
         <v>41</v>
       </c>
       <c r="B9" s="25"/>
-      <c r="C9" s="60"/>
+      <c r="C9" s="58"/>
       <c r="D9" s="30"/>
       <c r="E9" s="39"/>
       <c r="G9" s="8" t="s">
@@ -2550,19 +2953,19 @@
       <c r="O9" s="8"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="9"/>
-      <c r="S9" s="84"/>
+      <c r="S9" s="81"/>
       <c r="T9" s="3"/>
-      <c r="U9" s="82"/>
-      <c r="W9" s="84"/>
+      <c r="U9" s="79"/>
+      <c r="W9" s="81"/>
       <c r="X9" s="3"/>
-      <c r="Y9" s="82"/>
+      <c r="Y9" s="79"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10" s="66" t="s">
+      <c r="A10" s="64" t="s">
         <v>42</v>
       </c>
       <c r="B10" s="25"/>
-      <c r="C10" s="60"/>
+      <c r="C10" s="58"/>
       <c r="D10" s="30"/>
       <c r="E10" s="39"/>
       <c r="G10" s="8" t="s">
@@ -2587,19 +2990,19 @@
       <c r="O10" s="8"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="9"/>
-      <c r="S10" s="81"/>
+      <c r="S10" s="78"/>
       <c r="T10" s="50"/>
-      <c r="U10" s="85"/>
-      <c r="W10" s="84"/>
+      <c r="U10" s="82"/>
+      <c r="W10" s="81"/>
       <c r="X10" s="3"/>
-      <c r="Y10" s="82"/>
+      <c r="Y10" s="79"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A11" s="66" t="s">
+      <c r="A11" s="64" t="s">
         <v>43</v>
       </c>
       <c r="B11" s="25"/>
-      <c r="C11" s="60"/>
+      <c r="C11" s="58"/>
       <c r="D11" s="30"/>
       <c r="E11" s="39"/>
       <c r="G11" s="8" t="s">
@@ -2624,19 +3027,19 @@
       <c r="Q11" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="S11" s="84"/>
+      <c r="S11" s="81"/>
       <c r="T11" s="3"/>
-      <c r="U11" s="82"/>
-      <c r="W11" s="84"/>
+      <c r="U11" s="79"/>
+      <c r="W11" s="81"/>
       <c r="X11" s="3"/>
-      <c r="Y11" s="82"/>
+      <c r="Y11" s="79"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A12" s="67" t="s">
+      <c r="A12" s="65" t="s">
         <v>46</v>
       </c>
       <c r="B12" s="26"/>
-      <c r="C12" s="60"/>
+      <c r="C12" s="58"/>
       <c r="D12" s="30"/>
       <c r="E12" s="39"/>
       <c r="G12" s="15" t="s">
@@ -2667,19 +3070,19 @@
       <c r="Q12" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="S12" s="86"/>
+      <c r="S12" s="83"/>
       <c r="T12" s="54"/>
-      <c r="U12" s="87"/>
-      <c r="W12" s="84"/>
+      <c r="U12" s="84"/>
+      <c r="W12" s="81"/>
       <c r="X12" s="3"/>
-      <c r="Y12" s="82"/>
+      <c r="Y12" s="79"/>
     </row>
     <row r="13" spans="1:25" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="65" t="s">
+      <c r="A13" s="63" t="s">
         <v>47</v>
       </c>
       <c r="B13" s="46"/>
-      <c r="C13" s="59"/>
+      <c r="C13" s="58"/>
       <c r="D13" s="47"/>
       <c r="E13" s="48"/>
       <c r="G13" s="53" t="s">
@@ -2710,19 +3113,19 @@
       <c r="Q13" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="S13" s="81"/>
+      <c r="S13" s="78"/>
       <c r="T13" s="50"/>
-      <c r="U13" s="85"/>
-      <c r="W13" s="86"/>
+      <c r="U13" s="82"/>
+      <c r="W13" s="83"/>
       <c r="X13" s="54"/>
-      <c r="Y13" s="87"/>
+      <c r="Y13" s="84"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A14" s="68" t="s">
+      <c r="A14" s="66" t="s">
         <v>50</v>
       </c>
       <c r="B14" s="27"/>
-      <c r="C14" s="60"/>
+      <c r="C14" s="58"/>
       <c r="D14" s="30"/>
       <c r="E14" s="39"/>
       <c r="G14" s="13" t="s">
@@ -2753,19 +3156,19 @@
       <c r="Q14" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="S14" s="83"/>
+      <c r="S14" s="80"/>
       <c r="T14" s="14"/>
-      <c r="U14" s="82"/>
-      <c r="W14" s="84"/>
+      <c r="U14" s="79"/>
+      <c r="W14" s="81"/>
       <c r="X14" s="3"/>
-      <c r="Y14" s="82"/>
+      <c r="Y14" s="79"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A15" s="66" t="s">
+      <c r="A15" s="64" t="s">
         <v>48</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="60"/>
+      <c r="C15" s="58"/>
       <c r="D15" s="30"/>
       <c r="E15" s="39"/>
       <c r="G15" s="8" t="s">
@@ -2796,19 +3199,19 @@
       <c r="Q15" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="S15" s="84"/>
+      <c r="S15" s="81"/>
       <c r="T15" s="3"/>
-      <c r="U15" s="82"/>
-      <c r="W15" s="84"/>
+      <c r="U15" s="79"/>
+      <c r="W15" s="81"/>
       <c r="X15" s="3"/>
-      <c r="Y15" s="82"/>
+      <c r="Y15" s="79"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16" s="66" t="s">
+      <c r="A16" s="64" t="s">
         <v>49</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="60"/>
+      <c r="C16" s="58"/>
       <c r="D16" s="30"/>
       <c r="E16" s="39"/>
       <c r="G16" s="8" t="s">
@@ -2839,19 +3242,19 @@
       <c r="Q16" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="S16" s="84"/>
+      <c r="S16" s="81"/>
       <c r="T16" s="3"/>
-      <c r="U16" s="82"/>
-      <c r="W16" s="84"/>
+      <c r="U16" s="79"/>
+      <c r="W16" s="81"/>
       <c r="X16" s="3"/>
-      <c r="Y16" s="82"/>
+      <c r="Y16" s="79"/>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A17" s="66" t="s">
+      <c r="A17" s="64" t="s">
         <v>44</v>
       </c>
       <c r="B17" s="25"/>
-      <c r="C17" s="60"/>
+      <c r="C17" s="58"/>
       <c r="D17" s="30"/>
       <c r="E17" s="39"/>
       <c r="G17" s="8" t="s">
@@ -2882,19 +3285,19 @@
       <c r="Q17" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="S17" s="84"/>
+      <c r="S17" s="81"/>
       <c r="T17" s="3"/>
-      <c r="U17" s="82"/>
-      <c r="W17" s="84"/>
+      <c r="U17" s="79"/>
+      <c r="W17" s="81"/>
       <c r="X17" s="3"/>
-      <c r="Y17" s="82"/>
+      <c r="Y17" s="79"/>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A18" s="66" t="s">
+      <c r="A18" s="64" t="s">
         <v>45</v>
       </c>
       <c r="B18" s="25"/>
-      <c r="C18" s="60"/>
+      <c r="C18" s="58"/>
       <c r="D18" s="30"/>
       <c r="E18" s="39"/>
       <c r="G18" s="8" t="s">
@@ -2919,19 +3322,19 @@
       <c r="O18" s="8"/>
       <c r="P18" s="3"/>
       <c r="Q18" s="9"/>
-      <c r="S18" s="84"/>
+      <c r="S18" s="81"/>
       <c r="T18" s="3"/>
-      <c r="U18" s="82"/>
-      <c r="W18" s="84"/>
+      <c r="U18" s="79"/>
+      <c r="W18" s="81"/>
       <c r="X18" s="3"/>
-      <c r="Y18" s="82"/>
+      <c r="Y18" s="79"/>
     </row>
     <row r="19" spans="1:25" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="65" t="s">
+      <c r="A19" s="63" t="s">
         <v>2</v>
       </c>
       <c r="B19" s="46"/>
-      <c r="C19" s="59"/>
+      <c r="C19" s="58"/>
       <c r="D19" s="47"/>
       <c r="E19" s="48"/>
       <c r="G19" s="53" t="s">
@@ -2962,19 +3365,19 @@
       <c r="Q19" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="S19" s="86"/>
+      <c r="S19" s="83"/>
       <c r="T19" s="54"/>
-      <c r="U19" s="87"/>
-      <c r="W19" s="86"/>
+      <c r="U19" s="84"/>
+      <c r="W19" s="83"/>
       <c r="X19" s="54"/>
-      <c r="Y19" s="87"/>
+      <c r="Y19" s="84"/>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A20" s="66" t="s">
+      <c r="A20" s="64" t="s">
         <v>1</v>
       </c>
       <c r="B20" s="25"/>
-      <c r="C20" s="60"/>
+      <c r="C20" s="58"/>
       <c r="D20" s="30"/>
       <c r="E20" s="39"/>
       <c r="G20" s="8" t="s">
@@ -2999,19 +3402,19 @@
       <c r="O20" s="8"/>
       <c r="P20" s="3"/>
       <c r="Q20" s="9"/>
-      <c r="S20" s="84"/>
+      <c r="S20" s="81"/>
       <c r="T20" s="3"/>
-      <c r="U20" s="82"/>
-      <c r="W20" s="84"/>
+      <c r="U20" s="79"/>
+      <c r="W20" s="81"/>
       <c r="X20" s="3"/>
-      <c r="Y20" s="82"/>
+      <c r="Y20" s="79"/>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A21" s="67" t="s">
+      <c r="A21" s="65" t="s">
         <v>0</v>
       </c>
       <c r="B21" s="25"/>
-      <c r="C21" s="60"/>
+      <c r="C21" s="58"/>
       <c r="D21" s="30"/>
       <c r="E21" s="39"/>
       <c r="G21" s="15" t="s">
@@ -3036,19 +3439,19 @@
       <c r="Q21" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="S21" s="88"/>
+      <c r="S21" s="85"/>
       <c r="T21" s="4"/>
-      <c r="U21" s="89"/>
-      <c r="W21" s="88"/>
+      <c r="U21" s="86"/>
+      <c r="W21" s="85"/>
       <c r="X21" s="4"/>
-      <c r="Y21" s="89"/>
+      <c r="Y21" s="86"/>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A22" s="67" t="s">
+      <c r="A22" s="65" t="s">
         <v>55</v>
       </c>
       <c r="B22" s="25"/>
-      <c r="C22" s="60"/>
+      <c r="C22" s="58"/>
       <c r="D22" s="30"/>
       <c r="E22" s="39"/>
       <c r="G22" s="15" t="s">
@@ -3067,21 +3470,21 @@
       <c r="O22" s="15"/>
       <c r="P22" s="4"/>
       <c r="Q22" s="9"/>
-      <c r="S22" s="88"/>
+      <c r="S22" s="85"/>
       <c r="T22" s="4"/>
-      <c r="U22" s="89"/>
-      <c r="W22" s="88"/>
+      <c r="U22" s="86"/>
+      <c r="W22" s="85"/>
       <c r="X22" s="4"/>
-      <c r="Y22" s="89"/>
+      <c r="Y22" s="86"/>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A23" s="67" t="s">
+      <c r="A23" s="65" t="s">
         <v>56</v>
       </c>
       <c r="B23" s="26"/>
-      <c r="C23" s="70"/>
-      <c r="D23" s="71"/>
-      <c r="E23" s="72"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="69"/>
       <c r="G23" s="15" t="s">
         <v>56</v>
       </c>
@@ -3098,19 +3501,19 @@
       <c r="O23" s="15"/>
       <c r="P23" s="4"/>
       <c r="Q23" s="9"/>
-      <c r="S23" s="88"/>
+      <c r="S23" s="85"/>
       <c r="T23" s="4"/>
-      <c r="U23" s="89"/>
-      <c r="W23" s="88"/>
+      <c r="U23" s="86"/>
+      <c r="W23" s="85"/>
       <c r="X23" s="4"/>
-      <c r="Y23" s="89"/>
+      <c r="Y23" s="86"/>
     </row>
     <row r="24" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="21" t="s">
         <v>57</v>
       </c>
       <c r="B24" s="28"/>
-      <c r="C24" s="61"/>
+      <c r="C24" s="59"/>
       <c r="D24" s="31"/>
       <c r="E24" s="40"/>
       <c r="G24" s="10" t="s">
@@ -3141,12 +3544,12 @@
       <c r="Q24" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="S24" s="90"/>
-      <c r="T24" s="91"/>
-      <c r="U24" s="92"/>
-      <c r="W24" s="90"/>
-      <c r="X24" s="91"/>
-      <c r="Y24" s="92"/>
+      <c r="S24" s="87"/>
+      <c r="T24" s="88"/>
+      <c r="U24" s="89"/>
+      <c r="W24" s="87"/>
+      <c r="X24" s="88"/>
+      <c r="Y24" s="89"/>
     </row>
     <row r="25" spans="1:25" ht="7.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G25" s="6"/>
@@ -3159,16 +3562,16 @@
       <c r="O25" s="6"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="7"/>
-      <c r="S25" s="62"/>
+      <c r="S25" s="60"/>
       <c r="T25" s="2"/>
-      <c r="U25" s="63"/>
-      <c r="V25" s="64"/>
-      <c r="W25" s="62"/>
+      <c r="U25" s="61"/>
+      <c r="V25" s="62"/>
+      <c r="W25" s="60"/>
       <c r="X25" s="1"/>
       <c r="Y25" s="7"/>
     </row>
     <row r="26" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="73" t="s">
+      <c r="A26" s="70" t="s">
         <v>28</v>
       </c>
       <c r="B26" s="20" t="s">
@@ -3226,14 +3629,14 @@
       </c>
     </row>
     <row r="27" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="69" t="s">
+      <c r="A27" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="97" t="s">
+      <c r="B27" s="96" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="98"/>
-      <c r="D27" s="99"/>
+      <c r="C27" s="97"/>
+      <c r="D27" s="98"/>
       <c r="E27" s="36"/>
       <c r="G27" s="8"/>
       <c r="H27" s="3"/>
@@ -3252,14 +3655,14 @@
       <c r="Y27" s="9"/>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A28" s="69" t="s">
+      <c r="A28" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="97" t="s">
+      <c r="B28" s="96" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="98"/>
-      <c r="D28" s="99"/>
+      <c r="C28" s="97"/>
+      <c r="D28" s="98"/>
       <c r="E28" s="36"/>
       <c r="G28" s="8"/>
       <c r="H28" s="3"/>
@@ -3278,10 +3681,10 @@
       <c r="Y28" s="9"/>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A29" s="69"/>
-      <c r="B29" s="97"/>
-      <c r="C29" s="98"/>
-      <c r="D29" s="99"/>
+      <c r="A29" s="67"/>
+      <c r="B29" s="96"/>
+      <c r="C29" s="97"/>
+      <c r="D29" s="98"/>
       <c r="E29" s="36"/>
       <c r="G29" s="8"/>
       <c r="H29" s="3"/>
@@ -3323,9 +3726,9 @@
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="32"/>
-      <c r="B31" s="100"/>
-      <c r="C31" s="101"/>
-      <c r="D31" s="102"/>
+      <c r="B31" s="90"/>
+      <c r="C31" s="91"/>
+      <c r="D31" s="92"/>
       <c r="E31" s="36"/>
       <c r="G31" s="8"/>
       <c r="H31" s="3"/>
@@ -3345,9 +3748,9 @@
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="32"/>
-      <c r="B32" s="100"/>
-      <c r="C32" s="101"/>
-      <c r="D32" s="102"/>
+      <c r="B32" s="90"/>
+      <c r="C32" s="91"/>
+      <c r="D32" s="92"/>
       <c r="E32" s="36"/>
       <c r="G32" s="8"/>
       <c r="H32" s="3"/>
@@ -3367,9 +3770,9 @@
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="32"/>
-      <c r="B33" s="100"/>
-      <c r="C33" s="101"/>
-      <c r="D33" s="102"/>
+      <c r="B33" s="90"/>
+      <c r="C33" s="91"/>
+      <c r="D33" s="92"/>
       <c r="E33" s="36"/>
       <c r="G33" s="8"/>
       <c r="H33" s="3"/>
@@ -3389,9 +3792,9 @@
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="32"/>
-      <c r="B34" s="100"/>
-      <c r="C34" s="101"/>
-      <c r="D34" s="102"/>
+      <c r="B34" s="90"/>
+      <c r="C34" s="91"/>
+      <c r="D34" s="92"/>
       <c r="E34" s="36"/>
       <c r="G34" s="8"/>
       <c r="H34" s="3"/>
@@ -3411,9 +3814,9 @@
     </row>
     <row r="35" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="33"/>
-      <c r="B35" s="103"/>
-      <c r="C35" s="104"/>
-      <c r="D35" s="105"/>
+      <c r="B35" s="93"/>
+      <c r="C35" s="94"/>
+      <c r="D35" s="95"/>
       <c r="E35" s="37"/>
       <c r="G35" s="10"/>
       <c r="H35" s="11"/>
@@ -3435,10 +3838,15 @@
   </sheetData>
   <sheetProtection insertColumns="0" insertRows="0"/>
   <protectedRanges>
-    <protectedRange sqref="A24:H24 A12:P23 Q12:X24 A11:X11 V10:X10 A10:T10 A8:X9 A7:Y7 A6:X6 J24:P24" name="Contact Fields"/>
+    <protectedRange sqref="A24:B24 A12:B12 Q12:X24 A11:B11 V10:X10 A10:B10 A8:B8 A7:B7 A6:B6 J24:P24 D6:X6 D24:H24 A23:B23 D23:P23 A22:B22 D22:P22 A21:B21 D21:P21 A20:B20 D20:P20 A19:B19 D19:P19 A18:B18 D18:P18 A17:B17 D17:P17 A16:B16 D16:P16 A15:B15 D15:P15 A14:B14 D14:P14 A13:B13 D13:P13 D12:P12 D11:X11 D10:T10 A9:B9 D9:X9 D8:X8 D7:Y7" name="Contact Fields"/>
     <protectedRange sqref="A27:Y35 I24" name="Questionnaire"/>
   </protectedRanges>
   <mergeCells count="13">
+    <mergeCell ref="S3:U3"/>
+    <mergeCell ref="W3:Y3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="O3:Q3"/>
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="B35:D35"/>
@@ -3447,122 +3855,269 @@
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="B31:D31"/>
     <mergeCell ref="B32:D32"/>
-    <mergeCell ref="S3:U3"/>
-    <mergeCell ref="W3:Y3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="O3:Q3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A25:AG25 A24:H24 B12:P23 B7:F7 J7 Q15:AG24 N7:R7 Q12:R14 V12:AG14 B8:AG11 U6:U7 V7 Z7:AG7 J24:P24">
-    <cfRule type="expression" dxfId="25" priority="47">
+  <conditionalFormatting sqref="A25:AG25 A24:B24 J7 Q15:AG24 N7:R7 V12:AG14 U6:U7 V7 Z7:AG7 J24:P24 D24:H24 D15:P23 D12:R14 B7:B23 D8:AG11 D7:F7">
+    <cfRule type="expression" dxfId="65" priority="87">
       <formula>$C6="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="48">
+    <cfRule type="expression" dxfId="64" priority="88">
       <formula>$D6="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W27:Y35 S27:U35 O27:Q35 K27:M35 G27:I35">
-    <cfRule type="expression" dxfId="23" priority="45">
+    <cfRule type="expression" dxfId="63" priority="85">
       <formula>$C27="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="46">
+    <cfRule type="expression" dxfId="62" priority="86">
       <formula>$D27="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:A23">
-    <cfRule type="expression" dxfId="21" priority="35">
+    <cfRule type="expression" dxfId="61" priority="75">
       <formula>$C7="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="36">
+    <cfRule type="expression" dxfId="60" priority="76">
       <formula>$D7="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I24">
-    <cfRule type="expression" dxfId="19" priority="29">
+    <cfRule type="expression" dxfId="59" priority="69">
       <formula>$C24="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="30">
+    <cfRule type="expression" dxfId="58" priority="70">
       <formula>$D24="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:I7">
-    <cfRule type="expression" dxfId="17" priority="27">
+    <cfRule type="expression" dxfId="57" priority="67">
       <formula>$C6="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="28">
+    <cfRule type="expression" dxfId="56" priority="68">
       <formula>$D6="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7:I7">
-    <cfRule type="expression" dxfId="15" priority="51">
+    <cfRule type="expression" dxfId="55" priority="91">
       <formula>$C12="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="52">
+    <cfRule type="expression" dxfId="54" priority="92">
       <formula>$D12="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S12:U12">
-    <cfRule type="expression" dxfId="13" priority="21">
+    <cfRule type="expression" dxfId="53" priority="61">
       <formula>$C12="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="22">
+    <cfRule type="expression" dxfId="52" priority="62">
       <formula>$D12="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S13:U14">
-    <cfRule type="expression" dxfId="11" priority="13">
+    <cfRule type="expression" dxfId="51" priority="53">
       <formula>$C13="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="14">
+    <cfRule type="expression" dxfId="50" priority="54">
       <formula>$D13="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S6:T7">
-    <cfRule type="expression" dxfId="9" priority="11">
+    <cfRule type="expression" dxfId="49" priority="51">
       <formula>$C6="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="12">
+    <cfRule type="expression" dxfId="48" priority="52">
       <formula>$D6="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W7:Y7">
-    <cfRule type="expression" dxfId="7" priority="7">
+    <cfRule type="expression" dxfId="47" priority="47">
       <formula>$C7="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="8">
+    <cfRule type="expression" dxfId="46" priority="48">
       <formula>$D7="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7:M7">
-    <cfRule type="expression" dxfId="5" priority="3">
+    <cfRule type="expression" dxfId="45" priority="43">
       <formula>$C7="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="4">
+    <cfRule type="expression" dxfId="44" priority="44">
       <formula>$D7="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7:M7">
-    <cfRule type="expression" dxfId="3" priority="5">
+    <cfRule type="expression" dxfId="43" priority="45">
       <formula>$C12="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="6">
+    <cfRule type="expression" dxfId="42" priority="46">
       <formula>$D12="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:M6">
+    <cfRule type="expression" dxfId="41" priority="41">
+      <formula>$C6="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="42">
+      <formula>$D6="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6">
+    <cfRule type="expression" dxfId="39" priority="39">
+      <formula>$C6="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="38" priority="40">
+      <formula>$D6="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23">
+    <cfRule type="expression" dxfId="35" priority="35">
+      <formula>$C23="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="36">
+      <formula>$D23="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22">
+    <cfRule type="expression" dxfId="33" priority="33">
+      <formula>$C22="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="34">
+      <formula>$D22="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21">
+    <cfRule type="expression" dxfId="31" priority="31">
+      <formula>$C21="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="32">
+      <formula>$D21="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20">
+    <cfRule type="expression" dxfId="29" priority="29">
+      <formula>$C20="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="30">
+      <formula>$D20="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19">
+    <cfRule type="expression" dxfId="27" priority="27">
+      <formula>$C19="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="28">
+      <formula>$D19="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18">
+    <cfRule type="expression" dxfId="25" priority="25">
+      <formula>$C18="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="26">
+      <formula>$D18="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17">
+    <cfRule type="expression" dxfId="23" priority="23">
+      <formula>$C17="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="24">
+      <formula>$D17="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16">
+    <cfRule type="expression" dxfId="21" priority="21">
+      <formula>$C16="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="22">
+      <formula>$D16="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="expression" dxfId="19" priority="19">
+      <formula>$C15="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="20">
+      <formula>$D15="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14">
+    <cfRule type="expression" dxfId="17" priority="17">
+      <formula>$C14="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="18">
+      <formula>$D14="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13">
+    <cfRule type="expression" dxfId="15" priority="15">
+      <formula>$C13="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="16">
+      <formula>$D13="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12">
+    <cfRule type="expression" dxfId="13" priority="13">
+      <formula>$C12="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="14">
+      <formula>$D12="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11">
+    <cfRule type="expression" dxfId="11" priority="11">
+      <formula>$C11="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="12">
+      <formula>$D11="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10">
+    <cfRule type="expression" dxfId="9" priority="9">
+      <formula>$C10="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="10">
+      <formula>$D10="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9">
+    <cfRule type="expression" dxfId="7" priority="7">
+      <formula>$C9="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="8">
+      <formula>$D9="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8">
+    <cfRule type="expression" dxfId="5" priority="5">
+      <formula>$C8="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="6">
+      <formula>$D8="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7">
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>$C7="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>$D7="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24">
     <cfRule type="expression" dxfId="1" priority="1">
-      <formula>$C6="x"</formula>
+      <formula>$C24="x"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="2">
-      <formula>$D6="x"</formula>
+      <formula>$D24="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7" xr:uid="{800895DA-5639-438C-B977-CBBACBEDFF96}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:D7 C6 C8:C24" xr:uid="{800895DA-5639-438C-B977-CBBACBEDFF96}">
       <formula1>"x"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:C24 D6 D8:D24" xr:uid="{25196C70-295C-43FF-A050-7D2EA327A7B4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8:D24 D6" xr:uid="{25196C70-295C-43FF-A050-7D2EA327A7B4}">
       <formula1>#REF!</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:XFD1" xr:uid="{1CF26B28-1967-426C-8B8F-6D82F1D1CF4B}">
@@ -3579,6 +4134,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010060A44420B6B801499790497461B7617A" ma:contentTypeVersion="11" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="fabbcee23a04d27af1ae9e54f4461bef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8f774076-1ef3-4740-8929-5969f04599b3" xmlns:ns4="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c03e0335abb4116b770311e5abaeb524" ns3:_="" ns4:_="">
     <xsd:import namespace="8f774076-1ef3-4740-8929-5969f04599b3"/>
@@ -3787,22 +4357,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDAAE1C4-DB1B-4159-B8B9-55C0242E8521}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="8f774076-1ef3-4740-8929-5969f04599b3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4CDBC7-0A6E-420D-A4CD-91BDFDE80302}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3819,29 +4399,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDAAE1C4-DB1B-4159-B8B9-55C0242E8521}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="8f774076-1ef3-4740-8929-5969f04599b3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>